--- a/data/hotels_by_city/Dallas/Dallas_shard_256.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_256.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="325">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Barbara S</t>
+  </si>
+  <si>
     <t>06/07/2018</t>
   </si>
   <si>
@@ -186,6 +189,9 @@
     <t>Pros:• Comfortable beds• Clean rooms• Pool looked clean (we didn’t go in)• Nice lounge area and bar• Restaurant • Great complimentary breakfast• Friendly staffCons:• it’s in the middle of nowhere ... you couldn’t walk anywhere if you wanted to. Looks like this area is very much under development and this could change. • Super thin walls - could hear EVERYTHING from the person staying next door, including the shower and what was on their playlist, as well as doors slamming all over and people talking. • The showers are covered only by half walls of glass with no sliding door or curtain to close them completely. While I understand this is an attempt at modern design, it’s not very functional or practical and there seems to be no good way to not get water all over the floor (it splattered farther than the mat provided and i had to put down additional towels; attempted to push the shower head farther in and that was not possible). This is a potential slip and fall hazard if the hard flooring becomes wet. More</t>
   </si>
   <si>
+    <t>Jscott99</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55673-d11637359-r547454177-Four_Points_by_Sheraton_Dallas_Fort_Worth_Airport_North-Coppell_Texas.html</t>
   </si>
   <si>
@@ -216,6 +222,9 @@
     <t>Stayed only for one night but we’ve stayed before and enjoyed it every time so far. Parking is plentiful and check in was smooth and easy thanks to the friendly staff. Our room (two queen beds) was comfortable and clean, with a good sized modern washroom. Cleanliness was superb throughout the hotel and amenities were also well provided, including a good in-room dining menu and a shop for purchasing snacks.More</t>
   </si>
   <si>
+    <t>Bryan U</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55673-d11637359-r568466148-Four_Points_by_Sheraton_Dallas_Fort_Worth_Airport_North-Coppell_Texas.html</t>
   </si>
   <si>
@@ -246,6 +255,9 @@
     <t>Nice hotel but it's not close to anything, literally nothing nearby. There is construction around  the hotel so maybe it will change soon. We ordered room service for dinner and it was good. Check in was friendly. Check out was uneventful but the staff wasn't exactly professional during check out. I would stay here again but only if I got a really good rate.More</t>
   </si>
   <si>
+    <t>Kayleigh G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55673-d11637359-r564746614-Four_Points_by_Sheraton_Dallas_Fort_Worth_Airport_North-Coppell_Texas.html</t>
   </si>
   <si>
@@ -273,6 +285,9 @@
     <t>Stayed here unexpectedly for 2 nights after fleeing Hurricane Irma on our honeymoon!Good location, not far from the airport.  We arrived with only our hand luggage, having to abandon our suitcases in Hurricane chaos.Booked the hotel as soon as we landed at Fort Worth.  Me and my husband were mentally and physically exhausted but there were helpful check in staff who advised us of the free shuttle they have to the mall so we could purchase some clothes and toiletries etc.Nice modern hotel, lovely spacious rooms and a very good breakfast on offer.I will always have fond memories of this hotel that looked after us after we had such a frightening ordeal on our honeymoon!More</t>
   </si>
   <si>
+    <t>Gary K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55673-d11637359-r561342062-Four_Points_by_Sheraton_Dallas_Fort_Worth_Airport_North-Coppell_Texas.html</t>
   </si>
   <si>
@@ -300,6 +315,9 @@
     <t>Stayed here a night last week.  Location is good if you are heading to the airport.  Room was very clean and the staff seemed great.  There is not a whole lot more to say.  Not a lot to do close by.  No platinum lounge and if you are traveling by yourself the bar only has five or six seats (lots of tables).  I would stay again but it wouldn’t be my first choice.More</t>
   </si>
   <si>
+    <t>Joan N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55673-d11637359-r559201804-Four_Points_by_Sheraton_Dallas_Fort_Worth_Airport_North-Coppell_Texas.html</t>
   </si>
   <si>
@@ -324,6 +342,9 @@
     <t>Nice new hotel pretty close to the airport, but near nothing.  Their is a shuttle service, but you have to schedule it.  Run on the half hour.  The restaurant is in front of the bar in the open lobby.  Food is medicore at best.  The little market has very little choice, but offer a soup in a bowl.  However the rooms do not have microwaves so you would need to add water and heat in lobby.  Very in efficient. Staff is very nice, but they need to upgrade the market and restaurant.More</t>
   </si>
   <si>
+    <t>Dhanraj P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55673-d11637359-r557930862-Four_Points_by_Sheraton_Dallas_Fort_Worth_Airport_North-Coppell_Texas.html</t>
   </si>
   <si>
@@ -351,6 +372,9 @@
     <t>I checked in after a 15 hr Dubai to DFW direct Emirates flight and although the room &amp; staff are amazing - I checked out after less than 24 hrs!The reason was that there was no WiFi in the hotel! I understand that this can happen anywhere in the world but what I was upset about was that the reception staff were least aware about it and did not seem to care. Being a businessman and having to send emails + connect on whats app with family and associates was vital for me.I have stayed here several times in the past but this time with no WiFi and indifferent attitude made it impossible for me to stay put. Even after informing the reception that incase the internet does not work I will check out, they did not offer anything to me &amp; did not seem to care. When I kept calling them they kept saying - isn't it on? And also that it will be fixed in 1 hr. This went on from 4 PM until 10 AM the next day! Naturally, I moved across the street to the Element by Westin where the WiFI works brilliantly!More</t>
   </si>
   <si>
+    <t>Sherrie C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55673-d11637359-r557824013-Four_Points_by_Sheraton_Dallas_Fort_Worth_Airport_North-Coppell_Texas.html</t>
   </si>
   <si>
@@ -369,6 +393,9 @@
     <t>I stayed here two weeks in a row. Checking in was fine, staff was courteous. The bar and restaurant are... Bizarre! My first night, I ordered a Kim Crawford from the menu. I was delivered something that was not a sauv blanc (my friends had the same experience with the reds they ordered). The same issue the next night. The following week... The same issue. My friend at the table with me ordered a beer by name and was delivered a chardonnay. Another friend ordered a basic liqueur and was delivered the liqueur in a highball, over ice, with a straw.They were very nice, understaffed, and ill prepared to actually bar tend. The gal that was my bartender also delivered my room service later that night (the New York Strip wasn't bad at all).More</t>
   </si>
   <si>
+    <t>Tpr16</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55673-d11637359-r557379607-Four_Points_by_Sheraton_Dallas_Fort_Worth_Airport_North-Coppell_Texas.html</t>
   </si>
   <si>
@@ -393,6 +420,9 @@
     <t>I was part of a large group block. The room was clean and driver and front desk staff were friendly and efficient. The bar/restaurant was a bit of a disaster. Only 2 people handling bar, restaurant and room service. They were friendly and trying, but there was no way 2 people could handle that volume.More</t>
   </si>
   <si>
+    <t>CobaltConnection</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55673-d11637359-r555272800-Four_Points_by_Sheraton_Dallas_Fort_Worth_Airport_North-Coppell_Texas.html</t>
   </si>
   <si>
@@ -417,6 +447,9 @@
     <t>First time here.  8 miles from the airport. Brand new property. Very attentive and friendly staff. Rooms are well appointed and modern. Bathrooms are large and well lit.   Wifi is very strong.  Lobby is large and open. Many quality restaurants within 3 miles.  Gas stations within a quarter of a mile.  Free shuttles to and from airport.  AAA had a great rate.  No noise.More</t>
   </si>
   <si>
+    <t>Krista C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55673-d11637359-r550340664-Four_Points_by_Sheraton_Dallas_Fort_Worth_Airport_North-Coppell_Texas.html</t>
   </si>
   <si>
@@ -444,6 +477,9 @@
     <t>Last time staying here! Used our spg points to stay but won’t be back ! Had layover in DFW and thought this would be great close to airport with “ courtesy “ shuttle . Beware ! There is no courtesy with anyone at this hotel! Getting shuttle to pick you up is a nightmare ! Terrible directions and staff is just frankly rude . Hung up on myself and my husband because we asked to speak with someone who was a manger to help us get better directions. Shuttle driver drive 90 mph  ( literally we checked the speedometer while he drove)on the way to the hotel with a van full of passengers! I was greeted by the shuttle driver saying “ couldn’t you have just walked down here ? “ my children were so shocked by the staff behavior! We won’t be back !  Great “ new” hotel for platinum spg members to avoid ! More</t>
   </si>
   <si>
+    <t>Ginge59_12</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55673-d11637359-r543683185-Four_Points_by_Sheraton_Dallas_Fort_Worth_Airport_North-Coppell_Texas.html</t>
   </si>
   <si>
@@ -471,6 +507,9 @@
     <t>We were a bit apprehensive, but need not have been.The rooms were the standard 'large' size, the beds were comfortable, the showers were easy to work. Evening meal was tasty and filling, as was breakfast. A great one night stay close to the airport but it is seemed to be a long way from nowhere.More</t>
   </si>
   <si>
+    <t>Tripwarriors_com</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55673-d11637359-r540436918-Four_Points_by_Sheraton_Dallas_Fort_Worth_Airport_North-Coppell_Texas.html</t>
   </si>
   <si>
@@ -498,6 +537,9 @@
     <t>Nice hotel and well run - stays true to Four Points brand. Staff is very friendly. Location is a bit out of the way, but a decent spot if you are visiting the northern part of Dallas. I really liked the size of the rooms and clean and simple Texas ranch type decor. More</t>
   </si>
   <si>
+    <t>Shantaran</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55673-d11637359-r536491746-Four_Points_by_Sheraton_Dallas_Fort_Worth_Airport_North-Coppell_Texas.html</t>
   </si>
   <si>
@@ -525,6 +567,9 @@
     <t>If your on business in that exact area, then this place is ok, for a holiday I think there are probably lots of other places to stay that are much better. Staff are very friendly, rooms very basic bathrooms not very well appointed, shower dribbles out water and it's difficult to get in the waters jets. Biggest surprise for me was at 4pm when I tried to get something to eat and drink, bar was not just closed but cleared and the only food, used in the loosest terms on offer was high content artificial colour crisps, Pringles or some dried food in pots that you could add hot water to. Come on a Sheraton delivering such poor offering is most disappointing.More</t>
   </si>
   <si>
+    <t>Frank M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55673-d11637359-r536214032-Four_Points_by_Sheraton_Dallas_Fort_Worth_Airport_North-Coppell_Texas.html</t>
   </si>
   <si>
@@ -552,6 +597,9 @@
     <t>I stayed one night here and everything was as hoped for and expected with this hotel brand. The hotel is very new and has a simple contemporary design. Check in was simple with good service. The elevator to the room was a little walk from the lobby but not too bad. The room was clean and average size with good amenities. The bed was comfortable and the bath was clean, overall nothing special but no complaints. My spouse and I did visit the lobby bar/mini restaurant. It was enjoyable and the bartender was friendly and made a good drink. This is a good choice for a simple stay to meet all the basic hotel necessities at a fair price in a newer hotel close to airport.More</t>
   </si>
   <si>
+    <t>PlateMan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55673-d11637359-r533755847-Four_Points_by_Sheraton_Dallas_Fort_Worth_Airport_North-Coppell_Texas.html</t>
   </si>
   <si>
@@ -576,6 +624,9 @@
     <t>This hotel does not belong in the SPG portfolio. The service is beyond awful. Let me explain:It took three rooms to get one suitable. The first one on the fourth floor had an awful marijuana smell. The second on the third floor had a cigarette odor. The third on the second worked. While the hotel cannot control other guests, the front desk was not helpful at all -- failing to return phone calls, failing to alpogize. Failing basic customer service.I had my do not disturb sign, despite that, housekeeping knocked on my door twice.I found driver blood on the bedsheet cover (I will upload a photo soon).Other minor issues .. no free water (as promised as part of Four Points) in two of the room. In-room menu empty and air con only goes down to 68, annoying in Texas heat.I contacted corporate SPG about these issues, was promised the hotel would follow-up, and guess what they also failed to do that.There are many options near DFW, choose one where they value your business and where you don't find dried blood. Trust me on that.More</t>
   </si>
   <si>
+    <t>TWRoyal</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55673-d11637359-r531750017-Four_Points_by_Sheraton_Dallas_Fort_Worth_Airport_North-Coppell_Texas.html</t>
   </si>
   <si>
@@ -600,6 +651,9 @@
     <t>Four Points is a very new hotel with a very clean and good feel. The hotel is staffed with friendly people. From the shuttle at the airport to shuttle leaving back to the airport this hotel was extremely accommodating. The food at the hotel was great, the room was comfortable. Pillows, Bed was very comfortable. Nice propertyMore</t>
   </si>
   <si>
+    <t>c0rich2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55673-d11637359-r530665742-Four_Points_by_Sheraton_Dallas_Fort_Worth_Airport_North-Coppell_Texas.html</t>
   </si>
   <si>
@@ -624,6 +678,9 @@
     <t>It brand new and that great. Hotel was nice and clean. Gym was spacious. The only complaint was that the walls seem very thin, I pretty much heard everything going on in the room next to me as well as the hallway. More</t>
   </si>
   <si>
+    <t>Tracey B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55673-d11637359-r527418463-Four_Points_by_Sheraton_Dallas_Fort_Worth_Airport_North-Coppell_Texas.html</t>
   </si>
   <si>
@@ -648,6 +705,9 @@
     <t>The hotel is a very short distance from the airport and very easy to get a ride from an Uber driver, which is a plus.  I arrived in early evening, and the hotel was quite busy and very noisy as the restaurant is centrally located (only down side).  Having a restaurant was helpful, coming directly from the airport.  The hotel is new and is decorated with a modern flair.  The bed was comfortable, and free bottled water was a nice touch.  The staff was very friendly and helpful.  Recommendation:  book the shuttle early (fills up quickly) if you don't want to use Uber or rent a car.More</t>
   </si>
   <si>
+    <t>SomeDudeFromHouston</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55673-d11637359-r521407005-Four_Points_by_Sheraton_Dallas_Fort_Worth_Airport_North-Coppell_Texas.html</t>
   </si>
   <si>
@@ -673,6 +733,9 @@
   </si>
   <si>
     <t>Was looking for some place to stay close to Dallas and found this property. Great location and nice helpful people. Plenty of free parking and close to the highway. I used my points to stay and rates were reasonable.More</t>
+  </si>
+  <si>
+    <t>sandyjb83</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55673-d11637359-r496343540-Four_Points_by_Sheraton_Dallas_Fort_Worth_Airport_North-Coppell_Texas.html</t>
@@ -706,6 +769,9 @@
 Bathroom was clean, had a shower which worked well and had a double sink in the suite. Wifi worked well. At breakfast time, the staff didnt really have a clear idea on what the breakfast benefit was for a platinum. They provided me with vouchers but didnt specify what it could be used on. Was it a credit towards the menu, continental breakfast or use towards the...Had a 2 night stay here. The hotel offers a comped shuttle to/from DFW. While this is technically an airport hotel, its a reasonable distance away as are most airport hotels at DFW. The Hyatt is the only real airport hotel with most other hotels being a solid 10 minutes away at the least.This hotel is pretty new and when I checked in, the staff were not completely up to speed on some of the platinum benefits. No big deal....learning curve and all. Was upgraded to a suite (hey who know four points had suites!) which was nice. It had a nice large living space and a separate bedroom with an attached fairly large bathroom. Decor is a bit on the darker side but nice. For a new hotel, I was suprised that the rooms had the old motel style floor ac's but the ac did work well. There was also good blinds in place to black out the room. There were a couple of plug points by the bedside as well. Bathroom was clean, had a shower which worked well and had a double sink in the suite. Wifi worked well. At breakfast time, the staff didnt really have a clear idea on what the breakfast benefit was for a platinum. They provided me with vouchers but didnt specify what it could be used on. Was it a credit towards the menu, continental breakfast or use towards the buffet? In the end, I was in a rush and hit the buffet and the voucher was accepted as payment. The buffet was decent...eggs, bacon, yogurt, potatoes, coffee etc....mostly just the usual stuff. The hotel also has complimentary coffee set up in the lobby which is a nice touch. There really isnt anything else around the hotel unless you have a car.For me, this is a great option at DFW. New hotel, comfortable room, comp shuttle and breakfast. Will definitely be back.More</t>
   </si>
   <si>
+    <t>3greens2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55673-d11637359-r495881882-Four_Points_by_Sheraton_Dallas_Fort_Worth_Airport_North-Coppell_Texas.html</t>
   </si>
   <si>
@@ -727,6 +793,9 @@
     <t>This is a great location if you're flying out of dfw. They offer an airport shuttle and you can leave your car onsite for $8. Happy hour with free beer and snacks on Wednesday was a great start to our vacation. More</t>
   </si>
   <si>
+    <t>GoGlobalGo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55673-d11637359-r493227405-Four_Points_by_Sheraton_Dallas_Fort_Worth_Airport_North-Coppell_Texas.html</t>
   </si>
   <si>
@@ -751,6 +820,9 @@
     <t>Stayed here recently for 1 evening before taking off on an early morning flight. Had a slight issue at check-in with the rate but the front desk employee was very kind and accommodating making sure our rate was correct. The hotel is quite spacious and new, good for events. It felt like a new "millennial" hotel because of minimalist/sleek decorating. The room was basic but fit our need. The bed and linens were clean and comfy. My only complaint is a)no hooks to put a towel on when you get out of the open glass shower door and b) an OPEN glass shower door so all the water flies on the floor! Other than that, we didn't get a chance to use any of the amenities but there is an outdoor pool we walked by which looked small. If traveling in/out of DFW, I'd suggest it because of it's location and price!More</t>
   </si>
   <si>
+    <t>Mariekitt24</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55673-d11637359-r490780211-Four_Points_by_Sheraton_Dallas_Fort_Worth_Airport_North-Coppell_Texas.html</t>
   </si>
   <si>
@@ -775,6 +847,9 @@
     <t>The location was close to places to eat, the room itself was nice, no big complaints. No bathtub but the shower was nice. plenty of tv channels, we just could have used a list of which channel was which.  the pool was heated and my family had a blast swimming, not crowded.  I do wish they had a hot tub though! A clean, affordable place to stay. If they had a hot tub I would stay there again.More</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55673-d11637359-r490123440-Four_Points_by_Sheraton_Dallas_Fort_Worth_Airport_North-Coppell_Texas.html</t>
   </si>
   <si>
@@ -793,6 +868,9 @@
     <t>My trip home sucked! flight canceled but American got me a room at four points. Newer hotel , not luxurious but clean and had a bed. Front desk ladies (epically Gaby) did their best to accommodate large in flow displaced travlers. Unfortunately about 1:30 am alarms went off and entire hotel had to evacuate into the parking lot.When i finally was able to go to sleep it was 3am. Next morning staff was not well informed as i mentioned this mishap however once i made it know they took action.Not a destination hotel but staff goes over and beyond to meet any needs you may have... More</t>
   </si>
   <si>
+    <t>LazyButchers</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55673-d11637359-r455712307-Four_Points_by_Sheraton_Dallas_Fort_Worth_Airport_North-Coppell_Texas.html</t>
   </si>
   <si>
@@ -820,6 +898,9 @@
     <t>For a new hotel. you would think that they'd have the basics sorted. The rooms are decent and for the most part the staff are friendly and helpful but it is far from consistent.  Don't bother trying to get your laundry done or delivered on time.  Don't expect that any issues will be dealt with by management.  Such a disappointment compared to other SPG properties.More</t>
   </si>
   <si>
+    <t>Northcountrychick</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55673-d11637359-r455207542-Four_Points_by_Sheraton_Dallas_Fort_Worth_Airport_North-Coppell_Texas.html</t>
   </si>
   <si>
@@ -838,6 +919,9 @@
     <t>We arrived on a delayed flight from Mexico and were greeted by a lovely, friendly desk clerk. There were several folks milling around even though it was past ten p.m.. We were a little worried it would be noisy, but not a sound all night.  We were sent to our room on the 6th floor.  We opened the door to a lovely, bright and well furnished room. The bed/pillows were the most comfortable we have experienced in ages. The bathroom was shiny and new with everything you would need for an overnight stay. WiFi strong. Coffee/water and ice bucket if you needed.  Iron and ironing board.. Shuttle was free to and from the airport and gentleman very helpful indeed.  Checking out was a breeze. We will be staying there again I am sure.  Just a few miles from our granddaughter and husband who work with SouthWest as well.  Thank you so much Four Points.More</t>
   </si>
   <si>
+    <t>johnruda</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55673-d11637359-r452242870-Four_Points_by_Sheraton_Dallas_Fort_Worth_Airport_North-Coppell_Texas.html</t>
   </si>
   <si>
@@ -853,6 +937,9 @@
     <t>The staff was friendly.  The room was spotless and well designed.  It had an urban feel due to high ceilings and some of the styling, but didn't lack comfort.  The bed was comfortable, due in part to the brand new bedding including a duvet.  The bathroom has a stall shower with wall mounted dispensers.</t>
   </si>
   <si>
+    <t>HJFHJF</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55673-d11637359-r450565735-Four_Points_by_Sheraton_Dallas_Fort_Worth_Airport_North-Coppell_Texas.html</t>
   </si>
   <si>
@@ -868,6 +955,9 @@
     <t>4 to 6 miles away from the airport but worth the short drive and their shuttle come to pick you up at the airport. The room was large than the norm, and the staff was quite professional and welcoming.  I would stay in this place again without any hesitation.</t>
   </si>
   <si>
+    <t>jasonwskinner</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55673-d11637359-r445279488-Four_Points_by_Sheraton_Dallas_Fort_Worth_Airport_North-Coppell_Texas.html</t>
   </si>
   <si>
@@ -887,6 +977,9 @@
   </si>
   <si>
     <t>We stayed at this hotel for a corporate conference and we were treated with white gloves from the moment we walked in the door. The hotel is brand new so everything is wonderful from the conference center and business facilities to the room and fitness center. This trip was for business. But we will come back for a weekend to check out a lot of the dining and attractions we saw nearby. And it is so close to the airport. The only complaint is that they were unable to serve alcohol in the lounge. But there were postings up that the permit was coming soon. To the new ownership in Coppell - well done!More</t>
+  </si>
+  <si>
+    <t>ryanmason78</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55673-d11637359-r444712839-Four_Points_by_Sheraton_Dallas_Fort_Worth_Airport_North-Coppell_Texas.html</t>
@@ -1404,43 +1497,47 @@
       <c r="A2" t="n">
         <v>63811</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>2463</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1452,56 +1549,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>63811</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>137928</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1513,56 +1614,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="X3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Y3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>63811</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>137929</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="J4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="L4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="M4" t="n">
         <v>3</v>
       </c>
       <c r="N4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1574,56 +1679,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Y4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>63811</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>137930</v>
+      </c>
+      <c r="C5" t="s">
+        <v>79</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="J5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M5" t="n">
         <v>4</v>
       </c>
       <c r="N5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="O5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1635,56 +1744,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="X5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="Y5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>63811</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>2515</v>
+      </c>
+      <c r="C6" t="s">
+        <v>89</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="J6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="K6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="L6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="O6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1696,56 +1809,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="X6" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="Y6" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>63811</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>137931</v>
+      </c>
+      <c r="C7" t="s">
+        <v>99</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="J7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="K7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="L7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="O7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P7" t="n">
         <v>2</v>
@@ -1763,56 +1880,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="X7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="Y7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>63811</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>137932</v>
+      </c>
+      <c r="C8" t="s">
+        <v>108</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="J8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="K8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="L8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="O8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="n">
@@ -1830,56 +1951,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="X8" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="Y8" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>63811</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>99358</v>
+      </c>
+      <c r="C9" t="s">
+        <v>118</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="J9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="K9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="L9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="M9" t="n">
         <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="O9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1897,56 +2022,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="X9" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="Y9" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>63811</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>137933</v>
+      </c>
+      <c r="C10" t="s">
+        <v>125</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="J10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="K10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="L10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="M10" t="n">
         <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="O10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -1958,56 +2087,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="X10" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="Y10" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>63811</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>21208</v>
+      </c>
+      <c r="C11" t="s">
+        <v>134</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="J11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="K11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="L11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="O11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2019,56 +2152,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="X11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="Y11" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>63811</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>137934</v>
+      </c>
+      <c r="C12" t="s">
+        <v>143</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="J12" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="K12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="L12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2080,56 +2217,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="X12" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="Y12" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>63811</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>137935</v>
+      </c>
+      <c r="C13" t="s">
+        <v>153</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="J13" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="K13" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="L13" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
       </c>
       <c r="N13" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="O13" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="P13" t="n">
         <v>5</v>
@@ -2147,56 +2288,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="X13" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="Y13" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>63811</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>137936</v>
+      </c>
+      <c r="C14" t="s">
+        <v>163</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="J14" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="K14" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="L14" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="M14" t="n">
         <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="O14" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2208,56 +2353,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="X14" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="Y14" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>63811</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>137937</v>
+      </c>
+      <c r="C15" t="s">
+        <v>173</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="J15" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="K15" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="L15" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="M15" t="n">
         <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="O15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2269,56 +2418,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="X15" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="Y15" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>63811</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>16846</v>
+      </c>
+      <c r="C16" t="s">
+        <v>183</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>169</v>
+        <v>184</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="J16" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="K16" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="L16" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="O16" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="n">
@@ -2336,56 +2489,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="X16" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="Y16" t="s">
-        <v>177</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>63811</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>30513</v>
+      </c>
+      <c r="C17" t="s">
+        <v>193</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="J17" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="K17" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="L17" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="M17" t="n">
         <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="O17" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="P17" t="n">
         <v>3</v>
@@ -2403,56 +2560,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="X17" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="Y17" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>63811</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>137938</v>
+      </c>
+      <c r="C18" t="s">
+        <v>202</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>187</v>
+        <v>204</v>
       </c>
       <c r="J18" t="s">
-        <v>188</v>
+        <v>205</v>
       </c>
       <c r="K18" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="L18" t="s">
-        <v>190</v>
+        <v>207</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="O18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="n">
@@ -2470,56 +2631,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>191</v>
+        <v>208</v>
       </c>
       <c r="X18" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="Y18" t="s">
-        <v>193</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>63811</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>137939</v>
+      </c>
+      <c r="C19" t="s">
+        <v>211</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="J19" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="K19" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="L19" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="M19" t="n">
         <v>3</v>
       </c>
       <c r="N19" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="O19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -2531,56 +2696,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="X19" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="Y19" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>63811</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>157</v>
+      </c>
+      <c r="C20" t="s">
+        <v>220</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="J20" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="K20" t="s">
-        <v>205</v>
+        <v>224</v>
       </c>
       <c r="L20" t="s">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="O20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P20" t="n">
         <v>4</v>
@@ -2596,56 +2765,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>207</v>
+        <v>226</v>
       </c>
       <c r="X20" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="Y20" t="s">
-        <v>209</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>63811</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>137940</v>
+      </c>
+      <c r="C21" t="s">
+        <v>229</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="J21" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="K21" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="L21" t="s">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>215</v>
+        <v>235</v>
       </c>
       <c r="O21" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -2661,56 +2834,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="X21" t="s">
-        <v>217</v>
+        <v>237</v>
       </c>
       <c r="Y21" t="s">
-        <v>218</v>
+        <v>238</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>63811</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>33017</v>
+      </c>
+      <c r="C22" t="s">
+        <v>239</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="J22" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="K22" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="L22" t="s">
-        <v>223</v>
+        <v>244</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="O22" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="P22" t="n">
         <v>4</v>
@@ -2728,56 +2905,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="X22" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="Y22" t="s">
-        <v>227</v>
+        <v>248</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>63811</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>137941</v>
+      </c>
+      <c r="C23" t="s">
+        <v>249</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="J23" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="K23" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="L23" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="O23" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -2789,56 +2970,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>225</v>
+        <v>246</v>
       </c>
       <c r="X23" t="s">
-        <v>226</v>
+        <v>247</v>
       </c>
       <c r="Y23" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>63811</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>137942</v>
+      </c>
+      <c r="C24" t="s">
+        <v>257</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="J24" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="K24" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="L24" t="s">
-        <v>239</v>
+        <v>262</v>
       </c>
       <c r="M24" t="n">
         <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="O24" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -2850,56 +3035,60 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="X24" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
       <c r="Y24" t="s">
-        <v>242</v>
+        <v>265</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>63811</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>137943</v>
+      </c>
+      <c r="C25" t="s">
+        <v>266</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="J25" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="K25" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="L25" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="O25" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="n">
@@ -2913,56 +3102,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="X25" t="s">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="Y25" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>63811</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>275</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="J26" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="K26" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
       <c r="L26" t="s">
-        <v>255</v>
+        <v>280</v>
       </c>
       <c r="M26" t="n">
         <v>3</v>
       </c>
       <c r="N26" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="O26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -2974,56 +3167,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="X26" t="s">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="Y26" t="s">
-        <v>256</v>
+        <v>281</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>63811</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>137944</v>
+      </c>
+      <c r="C27" t="s">
+        <v>282</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="J27" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="K27" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="L27" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="M27" t="n">
         <v>3</v>
       </c>
       <c r="N27" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="O27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -3039,56 +3236,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="X27" t="s">
-        <v>264</v>
+        <v>290</v>
       </c>
       <c r="Y27" t="s">
-        <v>265</v>
+        <v>291</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>63811</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>137945</v>
+      </c>
+      <c r="C28" t="s">
+        <v>292</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="J28" t="s">
-        <v>268</v>
+        <v>295</v>
       </c>
       <c r="K28" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="L28" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="O28" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P28" t="n">
         <v>4</v>
@@ -3108,50 +3309,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>63811</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>132285</v>
+      </c>
+      <c r="C29" t="s">
+        <v>299</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="J29" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="K29" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="L29" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="M29" t="n">
         <v>5</v>
       </c>
       <c r="N29" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="O29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P29" t="n">
         <v>5</v>
@@ -3171,50 +3376,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>63811</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>137946</v>
+      </c>
+      <c r="C30" t="s">
+        <v>305</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>277</v>
+        <v>306</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>278</v>
+        <v>307</v>
       </c>
       <c r="J30" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="K30" t="s">
-        <v>280</v>
+        <v>309</v>
       </c>
       <c r="L30" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="M30" t="n">
         <v>5</v>
       </c>
       <c r="N30" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
       <c r="O30" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="n">
@@ -3234,50 +3443,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>63811</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>137947</v>
+      </c>
+      <c r="C31" t="s">
+        <v>311</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>282</v>
+        <v>312</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>283</v>
+        <v>313</v>
       </c>
       <c r="J31" t="s">
-        <v>284</v>
+        <v>314</v>
       </c>
       <c r="K31" t="s">
-        <v>285</v>
+        <v>315</v>
       </c>
       <c r="L31" t="s">
-        <v>286</v>
+        <v>316</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>287</v>
+        <v>317</v>
       </c>
       <c r="O31" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P31" t="n">
         <v>5</v>
@@ -3295,50 +3508,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>288</v>
+        <v>318</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>63811</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>137948</v>
+      </c>
+      <c r="C32" t="s">
+        <v>319</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>289</v>
+        <v>320</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="J32" t="s">
-        <v>291</v>
+        <v>322</v>
       </c>
       <c r="K32" t="s">
-        <v>292</v>
+        <v>323</v>
       </c>
       <c r="L32" t="s">
-        <v>293</v>
+        <v>324</v>
       </c>
       <c r="M32" t="n">
         <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>287</v>
+        <v>317</v>
       </c>
       <c r="O32" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="n">
@@ -3356,7 +3573,7 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>293</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_256.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_256.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="491">
   <si>
     <t>STR#</t>
   </si>
@@ -147,21 +147,153 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Barbara S</t>
-  </si>
-  <si>
-    <t>06/07/2018</t>
+    <t>08/19/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55673-d11637359-r603071447-Four_Points_by_Sheraton_Dallas_Fort_Worth_Airport_North-Coppell_Texas.html</t>
+  </si>
+  <si>
+    <t>55673</t>
+  </si>
+  <si>
+    <t>11637359</t>
+  </si>
+  <si>
+    <t>603071447</t>
+  </si>
+  <si>
+    <t>08/05/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fantastic staff </t>
+  </si>
+  <si>
+    <t>I checked in today for a one night stay.  The staff, especially Patty and shuttle driver that worked until 3 pm, were very good.  The room I have is very spacious and has a good sized refrigerator and a double-sink bathroom (1 sink more than I need).  I strongly recommend this hotel.  MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Kelly R, Manager at Four Points by Sheraton Dallas Fort Worth Airport North, responded to this reviewResponded 1 week ago</t>
+  </si>
+  <si>
+    <t>Responded 1 week ago</t>
+  </si>
+  <si>
+    <t>I checked in today for a one night stay.  The staff, especially Patty and shuttle driver that worked until 3 pm, were very good.  The room I have is very spacious and has a good sized refrigerator and a double-sink bathroom (1 sink more than I need).  I strongly recommend this hotel.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55673-d11637359-r602229587-Four_Points_by_Sheraton_Dallas_Fort_Worth_Airport_North-Coppell_Texas.html</t>
+  </si>
+  <si>
+    <t>602229587</t>
+  </si>
+  <si>
+    <t>08/02/2018</t>
+  </si>
+  <si>
+    <t>Great spot</t>
+  </si>
+  <si>
+    <t>Excellent customer service. Ask for bartender Tom- one of the best hotel service I’ve gotten for my money in ages. Definitely check it out. Great rates, lots of things to do in the area, the hotel shuttle is a great asset and pricing is very reasonable.MoreShow less</t>
+  </si>
+  <si>
+    <t>Christine B, General Manager at Four Points by Sheraton Dallas Fort Worth Airport North, responded to this reviewResponded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 2 weeks ago</t>
+  </si>
+  <si>
+    <t>Excellent customer service. Ask for bartender Tom- one of the best hotel service I’ve gotten for my money in ages. Definitely check it out. Great rates, lots of things to do in the area, the hotel shuttle is a great asset and pricing is very reasonable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55673-d11637359-r596355086-Four_Points_by_Sheraton_Dallas_Fort_Worth_Airport_North-Coppell_Texas.html</t>
+  </si>
+  <si>
+    <t>596355086</t>
+  </si>
+  <si>
+    <t>07/15/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good experience </t>
+  </si>
+  <si>
+    <t>Nice hotel, convenient for airport transfert, small but pleasant swimming pool. Good breakfast. Staff is welcoming, especially Blanca at the restaurant who is adorable and customer oriented. Thank you!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t>Kelly R, Manager at Four Points by Sheraton Dallas Fort Worth Airport North, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Nice hotel, convenient for airport transfert, small but pleasant swimming pool. Good breakfast. Staff is welcoming, especially Blanca at the restaurant who is adorable and customer oriented. Thank you!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55673-d11637359-r596086601-Four_Points_by_Sheraton_Dallas_Fort_Worth_Airport_North-Coppell_Texas.html</t>
+  </si>
+  <si>
+    <t>596086601</t>
+  </si>
+  <si>
+    <t>07/14/2018</t>
+  </si>
+  <si>
+    <t>Great visit</t>
+  </si>
+  <si>
+    <t>Great atmosphere, nicely decorated and Clean hotel, friendly staff and reasonable prices! Breakfast in the am is really great, go and see Blanca she’s awesome and will take care of you!! I always stay here for every Dallas business trip MoreShow less</t>
+  </si>
+  <si>
+    <t>Christine B, General Manager at Four Points by Sheraton Dallas Fort Worth Airport North, responded to this reviewResponded 5 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 5 weeks ago</t>
+  </si>
+  <si>
+    <t>Great atmosphere, nicely decorated and Clean hotel, friendly staff and reasonable prices! Breakfast in the am is really great, go and see Blanca she’s awesome and will take care of you!! I always stay here for every Dallas business trip More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55673-d11637359-r590086761-Four_Points_by_Sheraton_Dallas_Fort_Worth_Airport_North-Coppell_Texas.html</t>
+  </si>
+  <si>
+    <t>590086761</t>
+  </si>
+  <si>
+    <t>06/23/2018</t>
+  </si>
+  <si>
+    <t>Credit card fraud</t>
+  </si>
+  <si>
+    <t>Charged my credit card for unauthorized charges..Called twice now entering dispute with credit card company.  Avoid there are personnel stealing money and charging on credit cardsI basically slept there and left yet they decided to charge me some unknown charge MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Ronak_Kothari_Aquila, Guest Relations Manager at Four Points by Sheraton Dallas Fort Worth Airport North, responded to this reviewResponded June 29, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 29, 2018</t>
+  </si>
+  <si>
+    <t>Charged my credit card for unauthorized charges..Called twice now entering dispute with credit card company.  Avoid there are personnel stealing money and charging on credit cardsI basically slept there and left yet they decided to charge me some unknown charge More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55673-d11637359-r580842607-Four_Points_by_Sheraton_Dallas_Fort_Worth_Airport_North-Coppell_Texas.html</t>
   </si>
   <si>
-    <t>55673</t>
-  </si>
-  <si>
-    <t>11637359</t>
-  </si>
-  <si>
     <t>580842607</t>
   </si>
   <si>
@@ -174,22 +306,241 @@
     <t>Pros:• Comfortable beds• Clean rooms• Pool looked clean (we didn’t go in)• Nice lounge area and bar• Restaurant • Great complimentary breakfast• Friendly staffCons:• it’s in the middle of nowhere ... you couldn’t walk anywhere if you wanted to. Looks like this area is very much under development and this could change. • Super thin walls - could hear EVERYTHING from the person staying next door, including the shower and what was on their playlist, as well as doors slamming all over and people talking. • The showers are covered only by half walls of glass with no sliding door or curtain to close them completely. While I understand this is an attempt at modern design, it’s not very functional or practical and there seems to be no good way to not get water all over the floor (it splattered farther than the mat provided and i had to put down additional towels; attempted to push the shower head farther in and that was not possible). This is a potential slip and fall hazard if the hard flooring becomes wet. MoreShow less</t>
   </si>
   <si>
-    <t>May 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
-    <t>Ronak_Kothari_Aquila, Guest Relations Manager at Four Points by Sheraton Dallas Fort Worth Airport North, responded to this reviewResponded 2 weeks ago</t>
-  </si>
-  <si>
-    <t>Responded 2 weeks ago</t>
+    <t>Ronak_Kothari_Aquila, Guest Relations Manager at Four Points by Sheraton Dallas Fort Worth Airport North, responded to this reviewResponded May 24, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 24, 2018</t>
   </si>
   <si>
     <t>Pros:• Comfortable beds• Clean rooms• Pool looked clean (we didn’t go in)• Nice lounge area and bar• Restaurant • Great complimentary breakfast• Friendly staffCons:• it’s in the middle of nowhere ... you couldn’t walk anywhere if you wanted to. Looks like this area is very much under development and this could change. • Super thin walls - could hear EVERYTHING from the person staying next door, including the shower and what was on their playlist, as well as doors slamming all over and people talking. • The showers are covered only by half walls of glass with no sliding door or curtain to close them completely. While I understand this is an attempt at modern design, it’s not very functional or practical and there seems to be no good way to not get water all over the floor (it splattered farther than the mat provided and i had to put down additional towels; attempted to push the shower head farther in and that was not possible). This is a potential slip and fall hazard if the hard flooring becomes wet. More</t>
   </si>
   <si>
-    <t>Jscott99</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55673-d11637359-r568466148-Four_Points_by_Sheraton_Dallas_Fort_Worth_Airport_North-Coppell_Texas.html</t>
+  </si>
+  <si>
+    <t>568466148</t>
+  </si>
+  <si>
+    <t>03/24/2018</t>
+  </si>
+  <si>
+    <t>Ok stay</t>
+  </si>
+  <si>
+    <t>Nice hotel but it's not close to anything, literally nothing nearby. There is construction around  the hotel so maybe it will change soon. We ordered room service for dinner and it was good. Check in was friendly. Check out was uneventful but the staff wasn't exactly professional during check out. I would stay here again but only if I got a really good rate.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>Ronak_Kothari_Aquila, Guest Relations Manager at Four Points by Sheraton Dallas Fort Worth Airport North, responded to this reviewResponded March 26, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 26, 2018</t>
+  </si>
+  <si>
+    <t>Nice hotel but it's not close to anything, literally nothing nearby. There is construction around  the hotel so maybe it will change soon. We ordered room service for dinner and it was good. Check in was friendly. Check out was uneventful but the staff wasn't exactly professional during check out. I would stay here again but only if I got a really good rate.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55673-d11637359-r564746614-Four_Points_by_Sheraton_Dallas_Fort_Worth_Airport_North-Coppell_Texas.html</t>
+  </si>
+  <si>
+    <t>564746614</t>
+  </si>
+  <si>
+    <t>03/05/2018</t>
+  </si>
+  <si>
+    <t>2 night stay - nice hotel!</t>
+  </si>
+  <si>
+    <t>Stayed here unexpectedly for 2 nights after fleeing Hurricane Irma on our honeymoon!Good location, not far from the airport.  We arrived with only our hand luggage, having to abandon our suitcases in Hurricane chaos.Booked the hotel as soon as we landed at Fort Worth.  Me and my husband were mentally and physically exhausted but there were helpful check in staff who advised us of the free shuttle they have to the mall so we could purchase some clothes and toiletries etc.Nice modern hotel, lovely spacious rooms and a very good breakfast on offer.I will always have fond memories of this hotel that looked after us after we had such a frightening ordeal on our honeymoon!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>Ronak_Kothari_Aquila, Guest Relations Manager at Four Points by Sheraton Dallas Fort Worth Airport North, responded to this reviewResponded March 8, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 8, 2018</t>
+  </si>
+  <si>
+    <t>Stayed here unexpectedly for 2 nights after fleeing Hurricane Irma on our honeymoon!Good location, not far from the airport.  We arrived with only our hand luggage, having to abandon our suitcases in Hurricane chaos.Booked the hotel as soon as we landed at Fort Worth.  Me and my husband were mentally and physically exhausted but there were helpful check in staff who advised us of the free shuttle they have to the mall so we could purchase some clothes and toiletries etc.Nice modern hotel, lovely spacious rooms and a very good breakfast on offer.I will always have fond memories of this hotel that looked after us after we had such a frightening ordeal on our honeymoon!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55673-d11637359-r561342062-Four_Points_by_Sheraton_Dallas_Fort_Worth_Airport_North-Coppell_Texas.html</t>
+  </si>
+  <si>
+    <t>561342062</t>
+  </si>
+  <si>
+    <t>02/18/2018</t>
+  </si>
+  <si>
+    <t>Middle of the road</t>
+  </si>
+  <si>
+    <t>Stayed here a night last week.  Location is good if you are heading to the airport.  Room was very clean and the staff seemed great.  There is not a whole lot more to say.  Not a lot to do close by.  No platinum lounge and if you are traveling by yourself the bar only has five or six seats (lots of tables).  I would stay again but it wouldn’t be my first choice.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>Ronak_Kothari_Aquila, Guest Relations Manager at Four Points by Sheraton Dallas Fort Worth Airport North, responded to this reviewResponded February 19, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 19, 2018</t>
+  </si>
+  <si>
+    <t>Stayed here a night last week.  Location is good if you are heading to the airport.  Room was very clean and the staff seemed great.  There is not a whole lot more to say.  Not a lot to do close by.  No platinum lounge and if you are traveling by yourself the bar only has five or six seats (lots of tables).  I would stay again but it wouldn’t be my first choice.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55673-d11637359-r559201804-Four_Points_by_Sheraton_Dallas_Fort_Worth_Airport_North-Coppell_Texas.html</t>
+  </si>
+  <si>
+    <t>559201804</t>
+  </si>
+  <si>
+    <t>02/08/2018</t>
+  </si>
+  <si>
+    <t>New Hotel Close to Airport, but near nothing!</t>
+  </si>
+  <si>
+    <t>Nice new hotel pretty close to the airport, but near nothing.  Their is a shuttle service, but you have to schedule it.  Run on the half hour.  The restaurant is in front of the bar in the open lobby.  Food is medicore at best.  The little market has very little choice, but offer a soup in a bowl.  However the rooms do not have microwaves so you would need to add water and heat in lobby.  Very in efficient. Staff is very nice, but they need to upgrade the market and restaurant.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ronak_Kothari_Aquila, Guest Relations Manager at Four Points by Sheraton Dallas Fort Worth Airport North, responded to this reviewResponded February 13, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 13, 2018</t>
+  </si>
+  <si>
+    <t>Nice new hotel pretty close to the airport, but near nothing.  Their is a shuttle service, but you have to schedule it.  Run on the half hour.  The restaurant is in front of the bar in the open lobby.  Food is medicore at best.  The little market has very little choice, but offer a soup in a bowl.  However the rooms do not have microwaves so you would need to add water and heat in lobby.  Very in efficient. Staff is very nice, but they need to upgrade the market and restaurant.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55673-d11637359-r557930862-Four_Points_by_Sheraton_Dallas_Fort_Worth_Airport_North-Coppell_Texas.html</t>
+  </si>
+  <si>
+    <t>557930862</t>
+  </si>
+  <si>
+    <t>02/02/2018</t>
+  </si>
+  <si>
+    <t>No WiFi</t>
+  </si>
+  <si>
+    <t>I checked in after a 15 hr Dubai to DFW direct Emirates flight and although the room &amp; staff are amazing - I checked out after less than 24 hrs!The reason was that there was no WiFi in the hotel! I understand that this can happen anywhere in the world but what I was upset about was that the reception staff were least aware about it and did not seem to care. Being a businessman and having to send emails + connect on whats app with family and associates was vital for me.I have stayed here several times in the past but this time with no WiFi and indifferent attitude made it impossible for me to stay put. Even after informing the reception that incase the internet does not work I will check out, they did not offer anything to me &amp; did not seem to care. When I kept calling them they kept saying - isn't it on? And also that it will be fixed in 1 hr. This went on from 4 PM until 10 AM the next day! Naturally, I moved across the street to the Element by Westin where the WiFI works brilliantly!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>Ronak_Kothari_Aquila, Guest Relations Manager at Four Points by Sheraton Dallas Fort Worth Airport North, responded to this reviewResponded February 7, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 7, 2018</t>
+  </si>
+  <si>
+    <t>I checked in after a 15 hr Dubai to DFW direct Emirates flight and although the room &amp; staff are amazing - I checked out after less than 24 hrs!The reason was that there was no WiFi in the hotel! I understand that this can happen anywhere in the world but what I was upset about was that the reception staff were least aware about it and did not seem to care. Being a businessman and having to send emails + connect on whats app with family and associates was vital for me.I have stayed here several times in the past but this time with no WiFi and indifferent attitude made it impossible for me to stay put. Even after informing the reception that incase the internet does not work I will check out, they did not offer anything to me &amp; did not seem to care. When I kept calling them they kept saying - isn't it on? And also that it will be fixed in 1 hr. This went on from 4 PM until 10 AM the next day! Naturally, I moved across the street to the Element by Westin where the WiFI works brilliantly!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55673-d11637359-r557824013-Four_Points_by_Sheraton_Dallas_Fort_Worth_Airport_North-Coppell_Texas.html</t>
+  </si>
+  <si>
+    <t>557824013</t>
+  </si>
+  <si>
+    <t>02/01/2018</t>
+  </si>
+  <si>
+    <t>Rooms are nice / Bar and restaurant in need of Bar Rescue</t>
+  </si>
+  <si>
+    <t>I stayed here two weeks in a row. Checking in was fine, staff was courteous. The bar and restaurant are... Bizarre! My first night, I ordered a Kim Crawford from the menu. I was delivered something that was not a sauv blanc (my friends had the same experience with the reds they ordered). The same issue the next night. The following week... The same issue. My friend at the table with me ordered a beer by name and was delivered a chardonnay. Another friend ordered a basic liqueur and was delivered the liqueur in a highball, over ice, with a straw.They were very nice, understaffed, and ill prepared to actually bar tend. The gal that was my bartender also delivered my room service later that night (the New York Strip wasn't bad at all).MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed here two weeks in a row. Checking in was fine, staff was courteous. The bar and restaurant are... Bizarre! My first night, I ordered a Kim Crawford from the menu. I was delivered something that was not a sauv blanc (my friends had the same experience with the reds they ordered). The same issue the next night. The following week... The same issue. My friend at the table with me ordered a beer by name and was delivered a chardonnay. Another friend ordered a basic liqueur and was delivered the liqueur in a highball, over ice, with a straw.They were very nice, understaffed, and ill prepared to actually bar tend. The gal that was my bartender also delivered my room service later that night (the New York Strip wasn't bad at all).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55673-d11637359-r557379607-Four_Points_by_Sheraton_Dallas_Fort_Worth_Airport_North-Coppell_Texas.html</t>
+  </si>
+  <si>
+    <t>557379607</t>
+  </si>
+  <si>
+    <t>01/30/2018</t>
+  </si>
+  <si>
+    <t>Clean but not well staffed</t>
+  </si>
+  <si>
+    <t>I was part of a large group block. The room was clean and driver and front desk staff were friendly and efficient. The bar/restaurant was a bit of a disaster. Only 2 people handling bar, restaurant and room service. They were friendly and trying, but there was no way 2 people could handle that volume.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ronak_Kothari_Aquila, Guest Relations Manager at Four Points by Sheraton Dallas Fort Worth Airport North, responded to this reviewResponded January 31, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 31, 2018</t>
+  </si>
+  <si>
+    <t>I was part of a large group block. The room was clean and driver and front desk staff were friendly and efficient. The bar/restaurant was a bit of a disaster. Only 2 people handling bar, restaurant and room service. They were friendly and trying, but there was no way 2 people could handle that volume.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55673-d11637359-r555272800-Four_Points_by_Sheraton_Dallas_Fort_Worth_Airport_North-Coppell_Texas.html</t>
+  </si>
+  <si>
+    <t>555272800</t>
+  </si>
+  <si>
+    <t>01/21/2018</t>
+  </si>
+  <si>
+    <t>Excellent Choice</t>
+  </si>
+  <si>
+    <t>First time here.  8 miles from the airport. Brand new property. Very attentive and friendly staff. Rooms are well appointed and modern. Bathrooms are large and well lit.   Wifi is very strong.  Lobby is large and open. Many quality restaurants within 3 miles.  Gas stations within a quarter of a mile.  Free shuttles to and from airport.  AAA had a great rate.  No noise.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ronak_Kothari_Aquila, Guest Relations Manager at Four Points by Sheraton Dallas Fort Worth Airport North, responded to this reviewResponded January 30, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 30, 2018</t>
+  </si>
+  <si>
+    <t>First time here.  8 miles from the airport. Brand new property. Very attentive and friendly staff. Rooms are well appointed and modern. Bathrooms are large and well lit.   Wifi is very strong.  Lobby is large and open. Many quality restaurants within 3 miles.  Gas stations within a quarter of a mile.  Free shuttles to and from airport.  AAA had a great rate.  No noise.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55673-d11637359-r550340664-Four_Points_by_Sheraton_Dallas_Fort_Worth_Airport_North-Coppell_Texas.html</t>
+  </si>
+  <si>
+    <t>550340664</t>
+  </si>
+  <si>
+    <t>12/30/2017</t>
+  </si>
+  <si>
+    <t>No courtesy here !</t>
+  </si>
+  <si>
+    <t>Last time staying here! Used our spg points to stay but won’t be back ! Had layover in DFW and thought this would be great close to airport with “ courtesy “ shuttle . Beware ! There is no courtesy with anyone at this hotel! Getting shuttle to pick you up is a nightmare ! Terrible directions and staff is just frankly rude . Hung up on myself and my husband because we asked to speak with someone who was a manger to help us get better directions. Shuttle driver drive 90 mph  ( literally we checked the speedometer while he drove)on the way to the hotel with a van full of passengers! I was greeted by the shuttle driver saying “ couldn’t you have just walked down here ? “ my children were so shocked by the staff behavior! We won’t be back !  Great “ new” hotel for platinum spg members to avoid ! MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Ronak_Kothari_Aquila, Guest Relations Manager at Four Points by Sheraton Dallas Fort Worth Airport North, responded to this reviewResponded January 2, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 2, 2018</t>
+  </si>
+  <si>
+    <t>Last time staying here! Used our spg points to stay but won’t be back ! Had layover in DFW and thought this would be great close to airport with “ courtesy “ shuttle . Beware ! There is no courtesy with anyone at this hotel! Getting shuttle to pick you up is a nightmare ! Terrible directions and staff is just frankly rude . Hung up on myself and my husband because we asked to speak with someone who was a manger to help us get better directions. Shuttle driver drive 90 mph  ( literally we checked the speedometer while he drove)on the way to the hotel with a van full of passengers! I was greeted by the shuttle driver saying “ couldn’t you have just walked down here ? “ my children were so shocked by the staff behavior! We won’t be back !  Great “ new” hotel for platinum spg members to avoid ! More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55673-d11637359-r547454177-Four_Points_by_Sheraton_Dallas_Fort_Worth_Airport_North-Coppell_Texas.html</t>
@@ -207,9 +558,6 @@
     <t>Stayed only for one night but we’ve stayed before and enjoyed it every time so far. Parking is plentiful and check in was smooth and easy thanks to the friendly staff. Our room (two queen beds) was comfortable and clean, with a good sized modern washroom. Cleanliness was superb throughout the hotel and amenities were also well provided, including a good in-room dining menu and a shop for purchasing snacks.MoreShow less</t>
   </si>
   <si>
-    <t>December 2017</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
@@ -222,264 +570,6 @@
     <t>Stayed only for one night but we’ve stayed before and enjoyed it every time so far. Parking is plentiful and check in was smooth and easy thanks to the friendly staff. Our room (two queen beds) was comfortable and clean, with a good sized modern washroom. Cleanliness was superb throughout the hotel and amenities were also well provided, including a good in-room dining menu and a shop for purchasing snacks.More</t>
   </si>
   <si>
-    <t>Bryan U</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55673-d11637359-r568466148-Four_Points_by_Sheraton_Dallas_Fort_Worth_Airport_North-Coppell_Texas.html</t>
-  </si>
-  <si>
-    <t>568466148</t>
-  </si>
-  <si>
-    <t>03/24/2018</t>
-  </si>
-  <si>
-    <t>Ok stay</t>
-  </si>
-  <si>
-    <t>Nice hotel but it's not close to anything, literally nothing nearby. There is construction around  the hotel so maybe it will change soon. We ordered room service for dinner and it was good. Check in was friendly. Check out was uneventful but the staff wasn't exactly professional during check out. I would stay here again but only if I got a really good rate.MoreShow less</t>
-  </si>
-  <si>
-    <t>March 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
-    <t>Ronak_Kothari_Aquila, Guest Relations Manager at Four Points by Sheraton Dallas Fort Worth Airport North, responded to this reviewResponded March 26, 2018</t>
-  </si>
-  <si>
-    <t>Responded March 26, 2018</t>
-  </si>
-  <si>
-    <t>Nice hotel but it's not close to anything, literally nothing nearby. There is construction around  the hotel so maybe it will change soon. We ordered room service for dinner and it was good. Check in was friendly. Check out was uneventful but the staff wasn't exactly professional during check out. I would stay here again but only if I got a really good rate.More</t>
-  </si>
-  <si>
-    <t>Kayleigh G</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55673-d11637359-r564746614-Four_Points_by_Sheraton_Dallas_Fort_Worth_Airport_North-Coppell_Texas.html</t>
-  </si>
-  <si>
-    <t>564746614</t>
-  </si>
-  <si>
-    <t>03/05/2018</t>
-  </si>
-  <si>
-    <t>2 night stay - nice hotel!</t>
-  </si>
-  <si>
-    <t>Stayed here unexpectedly for 2 nights after fleeing Hurricane Irma on our honeymoon!Good location, not far from the airport.  We arrived with only our hand luggage, having to abandon our suitcases in Hurricane chaos.Booked the hotel as soon as we landed at Fort Worth.  Me and my husband were mentally and physically exhausted but there were helpful check in staff who advised us of the free shuttle they have to the mall so we could purchase some clothes and toiletries etc.Nice modern hotel, lovely spacious rooms and a very good breakfast on offer.I will always have fond memories of this hotel that looked after us after we had such a frightening ordeal on our honeymoon!MoreShow less</t>
-  </si>
-  <si>
-    <t>September 2017</t>
-  </si>
-  <si>
-    <t>Ronak_Kothari_Aquila, Guest Relations Manager at Four Points by Sheraton Dallas Fort Worth Airport North, responded to this reviewResponded March 8, 2018</t>
-  </si>
-  <si>
-    <t>Responded March 8, 2018</t>
-  </si>
-  <si>
-    <t>Stayed here unexpectedly for 2 nights after fleeing Hurricane Irma on our honeymoon!Good location, not far from the airport.  We arrived with only our hand luggage, having to abandon our suitcases in Hurricane chaos.Booked the hotel as soon as we landed at Fort Worth.  Me and my husband were mentally and physically exhausted but there were helpful check in staff who advised us of the free shuttle they have to the mall so we could purchase some clothes and toiletries etc.Nice modern hotel, lovely spacious rooms and a very good breakfast on offer.I will always have fond memories of this hotel that looked after us after we had such a frightening ordeal on our honeymoon!More</t>
-  </si>
-  <si>
-    <t>Gary K</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55673-d11637359-r561342062-Four_Points_by_Sheraton_Dallas_Fort_Worth_Airport_North-Coppell_Texas.html</t>
-  </si>
-  <si>
-    <t>561342062</t>
-  </si>
-  <si>
-    <t>02/18/2018</t>
-  </si>
-  <si>
-    <t>Middle of the road</t>
-  </si>
-  <si>
-    <t>Stayed here a night last week.  Location is good if you are heading to the airport.  Room was very clean and the staff seemed great.  There is not a whole lot more to say.  Not a lot to do close by.  No platinum lounge and if you are traveling by yourself the bar only has five or six seats (lots of tables).  I would stay again but it wouldn’t be my first choice.MoreShow less</t>
-  </si>
-  <si>
-    <t>February 2018</t>
-  </si>
-  <si>
-    <t>Ronak_Kothari_Aquila, Guest Relations Manager at Four Points by Sheraton Dallas Fort Worth Airport North, responded to this reviewResponded February 19, 2018</t>
-  </si>
-  <si>
-    <t>Responded February 19, 2018</t>
-  </si>
-  <si>
-    <t>Stayed here a night last week.  Location is good if you are heading to the airport.  Room was very clean and the staff seemed great.  There is not a whole lot more to say.  Not a lot to do close by.  No platinum lounge and if you are traveling by yourself the bar only has five or six seats (lots of tables).  I would stay again but it wouldn’t be my first choice.More</t>
-  </si>
-  <si>
-    <t>Joan N</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55673-d11637359-r559201804-Four_Points_by_Sheraton_Dallas_Fort_Worth_Airport_North-Coppell_Texas.html</t>
-  </si>
-  <si>
-    <t>559201804</t>
-  </si>
-  <si>
-    <t>02/08/2018</t>
-  </si>
-  <si>
-    <t>New Hotel Close to Airport, but near nothing!</t>
-  </si>
-  <si>
-    <t>Nice new hotel pretty close to the airport, but near nothing.  Their is a shuttle service, but you have to schedule it.  Run on the half hour.  The restaurant is in front of the bar in the open lobby.  Food is medicore at best.  The little market has very little choice, but offer a soup in a bowl.  However the rooms do not have microwaves so you would need to add water and heat in lobby.  Very in efficient. Staff is very nice, but they need to upgrade the market and restaurant.MoreShow less</t>
-  </si>
-  <si>
-    <t>Ronak_Kothari_Aquila, Guest Relations Manager at Four Points by Sheraton Dallas Fort Worth Airport North, responded to this reviewResponded February 13, 2018</t>
-  </si>
-  <si>
-    <t>Responded February 13, 2018</t>
-  </si>
-  <si>
-    <t>Nice new hotel pretty close to the airport, but near nothing.  Their is a shuttle service, but you have to schedule it.  Run on the half hour.  The restaurant is in front of the bar in the open lobby.  Food is medicore at best.  The little market has very little choice, but offer a soup in a bowl.  However the rooms do not have microwaves so you would need to add water and heat in lobby.  Very in efficient. Staff is very nice, but they need to upgrade the market and restaurant.More</t>
-  </si>
-  <si>
-    <t>Dhanraj P</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55673-d11637359-r557930862-Four_Points_by_Sheraton_Dallas_Fort_Worth_Airport_North-Coppell_Texas.html</t>
-  </si>
-  <si>
-    <t>557930862</t>
-  </si>
-  <si>
-    <t>02/02/2018</t>
-  </si>
-  <si>
-    <t>No WiFi</t>
-  </si>
-  <si>
-    <t>I checked in after a 15 hr Dubai to DFW direct Emirates flight and although the room &amp; staff are amazing - I checked out after less than 24 hrs!The reason was that there was no WiFi in the hotel! I understand that this can happen anywhere in the world but what I was upset about was that the reception staff were least aware about it and did not seem to care. Being a businessman and having to send emails + connect on whats app with family and associates was vital for me.I have stayed here several times in the past but this time with no WiFi and indifferent attitude made it impossible for me to stay put. Even after informing the reception that incase the internet does not work I will check out, they did not offer anything to me &amp; did not seem to care. When I kept calling them they kept saying - isn't it on? And also that it will be fixed in 1 hr. This went on from 4 PM until 10 AM the next day! Naturally, I moved across the street to the Element by Westin where the WiFI works brilliantly!MoreShow less</t>
-  </si>
-  <si>
-    <t>January 2018</t>
-  </si>
-  <si>
-    <t>Ronak_Kothari_Aquila, Guest Relations Manager at Four Points by Sheraton Dallas Fort Worth Airport North, responded to this reviewResponded February 7, 2018</t>
-  </si>
-  <si>
-    <t>Responded February 7, 2018</t>
-  </si>
-  <si>
-    <t>I checked in after a 15 hr Dubai to DFW direct Emirates flight and although the room &amp; staff are amazing - I checked out after less than 24 hrs!The reason was that there was no WiFi in the hotel! I understand that this can happen anywhere in the world but what I was upset about was that the reception staff were least aware about it and did not seem to care. Being a businessman and having to send emails + connect on whats app with family and associates was vital for me.I have stayed here several times in the past but this time with no WiFi and indifferent attitude made it impossible for me to stay put. Even after informing the reception that incase the internet does not work I will check out, they did not offer anything to me &amp; did not seem to care. When I kept calling them they kept saying - isn't it on? And also that it will be fixed in 1 hr. This went on from 4 PM until 10 AM the next day! Naturally, I moved across the street to the Element by Westin where the WiFI works brilliantly!More</t>
-  </si>
-  <si>
-    <t>Sherrie C</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55673-d11637359-r557824013-Four_Points_by_Sheraton_Dallas_Fort_Worth_Airport_North-Coppell_Texas.html</t>
-  </si>
-  <si>
-    <t>557824013</t>
-  </si>
-  <si>
-    <t>02/01/2018</t>
-  </si>
-  <si>
-    <t>Rooms are nice / Bar and restaurant in need of Bar Rescue</t>
-  </si>
-  <si>
-    <t>I stayed here two weeks in a row. Checking in was fine, staff was courteous. The bar and restaurant are... Bizarre! My first night, I ordered a Kim Crawford from the menu. I was delivered something that was not a sauv blanc (my friends had the same experience with the reds they ordered). The same issue the next night. The following week... The same issue. My friend at the table with me ordered a beer by name and was delivered a chardonnay. Another friend ordered a basic liqueur and was delivered the liqueur in a highball, over ice, with a straw.They were very nice, understaffed, and ill prepared to actually bar tend. The gal that was my bartender also delivered my room service later that night (the New York Strip wasn't bad at all).MoreShow less</t>
-  </si>
-  <si>
-    <t>I stayed here two weeks in a row. Checking in was fine, staff was courteous. The bar and restaurant are... Bizarre! My first night, I ordered a Kim Crawford from the menu. I was delivered something that was not a sauv blanc (my friends had the same experience with the reds they ordered). The same issue the next night. The following week... The same issue. My friend at the table with me ordered a beer by name and was delivered a chardonnay. Another friend ordered a basic liqueur and was delivered the liqueur in a highball, over ice, with a straw.They were very nice, understaffed, and ill prepared to actually bar tend. The gal that was my bartender also delivered my room service later that night (the New York Strip wasn't bad at all).More</t>
-  </si>
-  <si>
-    <t>Tpr16</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55673-d11637359-r557379607-Four_Points_by_Sheraton_Dallas_Fort_Worth_Airport_North-Coppell_Texas.html</t>
-  </si>
-  <si>
-    <t>557379607</t>
-  </si>
-  <si>
-    <t>01/30/2018</t>
-  </si>
-  <si>
-    <t>Clean but not well staffed</t>
-  </si>
-  <si>
-    <t>I was part of a large group block. The room was clean and driver and front desk staff were friendly and efficient. The bar/restaurant was a bit of a disaster. Only 2 people handling bar, restaurant and room service. They were friendly and trying, but there was no way 2 people could handle that volume.MoreShow less</t>
-  </si>
-  <si>
-    <t>Ronak_Kothari_Aquila, Guest Relations Manager at Four Points by Sheraton Dallas Fort Worth Airport North, responded to this reviewResponded January 31, 2018</t>
-  </si>
-  <si>
-    <t>Responded January 31, 2018</t>
-  </si>
-  <si>
-    <t>I was part of a large group block. The room was clean and driver and front desk staff were friendly and efficient. The bar/restaurant was a bit of a disaster. Only 2 people handling bar, restaurant and room service. They were friendly and trying, but there was no way 2 people could handle that volume.More</t>
-  </si>
-  <si>
-    <t>CobaltConnection</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55673-d11637359-r555272800-Four_Points_by_Sheraton_Dallas_Fort_Worth_Airport_North-Coppell_Texas.html</t>
-  </si>
-  <si>
-    <t>555272800</t>
-  </si>
-  <si>
-    <t>01/21/2018</t>
-  </si>
-  <si>
-    <t>Excellent Choice</t>
-  </si>
-  <si>
-    <t>First time here.  8 miles from the airport. Brand new property. Very attentive and friendly staff. Rooms are well appointed and modern. Bathrooms are large and well lit.   Wifi is very strong.  Lobby is large and open. Many quality restaurants within 3 miles.  Gas stations within a quarter of a mile.  Free shuttles to and from airport.  AAA had a great rate.  No noise.MoreShow less</t>
-  </si>
-  <si>
-    <t>Ronak_Kothari_Aquila, Guest Relations Manager at Four Points by Sheraton Dallas Fort Worth Airport North, responded to this reviewResponded January 30, 2018</t>
-  </si>
-  <si>
-    <t>Responded January 30, 2018</t>
-  </si>
-  <si>
-    <t>First time here.  8 miles from the airport. Brand new property. Very attentive and friendly staff. Rooms are well appointed and modern. Bathrooms are large and well lit.   Wifi is very strong.  Lobby is large and open. Many quality restaurants within 3 miles.  Gas stations within a quarter of a mile.  Free shuttles to and from airport.  AAA had a great rate.  No noise.More</t>
-  </si>
-  <si>
-    <t>Krista C</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g55673-d11637359-r550340664-Four_Points_by_Sheraton_Dallas_Fort_Worth_Airport_North-Coppell_Texas.html</t>
-  </si>
-  <si>
-    <t>550340664</t>
-  </si>
-  <si>
-    <t>12/30/2017</t>
-  </si>
-  <si>
-    <t>No courtesy here !</t>
-  </si>
-  <si>
-    <t>Last time staying here! Used our spg points to stay but won’t be back ! Had layover in DFW and thought this would be great close to airport with “ courtesy “ shuttle . Beware ! There is no courtesy with anyone at this hotel! Getting shuttle to pick you up is a nightmare ! Terrible directions and staff is just frankly rude . Hung up on myself and my husband because we asked to speak with someone who was a manger to help us get better directions. Shuttle driver drive 90 mph  ( literally we checked the speedometer while he drove)on the way to the hotel with a van full of passengers! I was greeted by the shuttle driver saying “ couldn’t you have just walked down here ? “ my children were so shocked by the staff behavior! We won’t be back !  Great “ new” hotel for platinum spg members to avoid ! MoreShow less</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
-    <t>Ronak_Kothari_Aquila, Guest Relations Manager at Four Points by Sheraton Dallas Fort Worth Airport North, responded to this reviewResponded January 2, 2018</t>
-  </si>
-  <si>
-    <t>Responded January 2, 2018</t>
-  </si>
-  <si>
-    <t>Last time staying here! Used our spg points to stay but won’t be back ! Had layover in DFW and thought this would be great close to airport with “ courtesy “ shuttle . Beware ! There is no courtesy with anyone at this hotel! Getting shuttle to pick you up is a nightmare ! Terrible directions and staff is just frankly rude . Hung up on myself and my husband because we asked to speak with someone who was a manger to help us get better directions. Shuttle driver drive 90 mph  ( literally we checked the speedometer while he drove)on the way to the hotel with a van full of passengers! I was greeted by the shuttle driver saying “ couldn’t you have just walked down here ? “ my children were so shocked by the staff behavior! We won’t be back !  Great “ new” hotel for platinum spg members to avoid ! More</t>
-  </si>
-  <si>
-    <t>Ginge59_12</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55673-d11637359-r543683185-Four_Points_by_Sheraton_Dallas_Fort_Worth_Airport_North-Coppell_Texas.html</t>
   </si>
   <si>
@@ -507,9 +597,6 @@
     <t>We were a bit apprehensive, but need not have been.The rooms were the standard 'large' size, the beds were comfortable, the showers were easy to work. Evening meal was tasty and filling, as was breakfast. A great one night stay close to the airport but it is seemed to be a long way from nowhere.More</t>
   </si>
   <si>
-    <t>Tripwarriors_com</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55673-d11637359-r540436918-Four_Points_by_Sheraton_Dallas_Fort_Worth_Airport_North-Coppell_Texas.html</t>
   </si>
   <si>
@@ -537,9 +624,6 @@
     <t>Nice hotel and well run - stays true to Four Points brand. Staff is very friendly. Location is a bit out of the way, but a decent spot if you are visiting the northern part of Dallas. I really liked the size of the rooms and clean and simple Texas ranch type decor. More</t>
   </si>
   <si>
-    <t>Shantaran</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55673-d11637359-r536491746-Four_Points_by_Sheraton_Dallas_Fort_Worth_Airport_North-Coppell_Texas.html</t>
   </si>
   <si>
@@ -567,9 +651,6 @@
     <t>If your on business in that exact area, then this place is ok, for a holiday I think there are probably lots of other places to stay that are much better. Staff are very friendly, rooms very basic bathrooms not very well appointed, shower dribbles out water and it's difficult to get in the waters jets. Biggest surprise for me was at 4pm when I tried to get something to eat and drink, bar was not just closed but cleared and the only food, used in the loosest terms on offer was high content artificial colour crisps, Pringles or some dried food in pots that you could add hot water to. Come on a Sheraton delivering such poor offering is most disappointing.More</t>
   </si>
   <si>
-    <t>Frank M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55673-d11637359-r536214032-Four_Points_by_Sheraton_Dallas_Fort_Worth_Airport_North-Coppell_Texas.html</t>
   </si>
   <si>
@@ -597,9 +678,6 @@
     <t>I stayed one night here and everything was as hoped for and expected with this hotel brand. The hotel is very new and has a simple contemporary design. Check in was simple with good service. The elevator to the room was a little walk from the lobby but not too bad. The room was clean and average size with good amenities. The bed was comfortable and the bath was clean, overall nothing special but no complaints. My spouse and I did visit the lobby bar/mini restaurant. It was enjoyable and the bartender was friendly and made a good drink. This is a good choice for a simple stay to meet all the basic hotel necessities at a fair price in a newer hotel close to airport.More</t>
   </si>
   <si>
-    <t>PlateMan</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55673-d11637359-r533755847-Four_Points_by_Sheraton_Dallas_Fort_Worth_Airport_North-Coppell_Texas.html</t>
   </si>
   <si>
@@ -624,9 +702,6 @@
     <t>This hotel does not belong in the SPG portfolio. The service is beyond awful. Let me explain:It took three rooms to get one suitable. The first one on the fourth floor had an awful marijuana smell. The second on the third floor had a cigarette odor. The third on the second worked. While the hotel cannot control other guests, the front desk was not helpful at all -- failing to return phone calls, failing to alpogize. Failing basic customer service.I had my do not disturb sign, despite that, housekeeping knocked on my door twice.I found driver blood on the bedsheet cover (I will upload a photo soon).Other minor issues .. no free water (as promised as part of Four Points) in two of the room. In-room menu empty and air con only goes down to 68, annoying in Texas heat.I contacted corporate SPG about these issues, was promised the hotel would follow-up, and guess what they also failed to do that.There are many options near DFW, choose one where they value your business and where you don't find dried blood. Trust me on that.More</t>
   </si>
   <si>
-    <t>TWRoyal</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55673-d11637359-r531750017-Four_Points_by_Sheraton_Dallas_Fort_Worth_Airport_North-Coppell_Texas.html</t>
   </si>
   <si>
@@ -651,9 +726,6 @@
     <t>Four Points is a very new hotel with a very clean and good feel. The hotel is staffed with friendly people. From the shuttle at the airport to shuttle leaving back to the airport this hotel was extremely accommodating. The food at the hotel was great, the room was comfortable. Pillows, Bed was very comfortable. Nice propertyMore</t>
   </si>
   <si>
-    <t>c0rich2</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55673-d11637359-r530665742-Four_Points_by_Sheraton_Dallas_Fort_Worth_Airport_North-Coppell_Texas.html</t>
   </si>
   <si>
@@ -678,9 +750,6 @@
     <t>It brand new and that great. Hotel was nice and clean. Gym was spacious. The only complaint was that the walls seem very thin, I pretty much heard everything going on in the room next to me as well as the hallway. More</t>
   </si>
   <si>
-    <t>Tracey B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55673-d11637359-r527418463-Four_Points_by_Sheraton_Dallas_Fort_Worth_Airport_North-Coppell_Texas.html</t>
   </si>
   <si>
@@ -705,9 +774,6 @@
     <t>The hotel is a very short distance from the airport and very easy to get a ride from an Uber driver, which is a plus.  I arrived in early evening, and the hotel was quite busy and very noisy as the restaurant is centrally located (only down side).  Having a restaurant was helpful, coming directly from the airport.  The hotel is new and is decorated with a modern flair.  The bed was comfortable, and free bottled water was a nice touch.  The staff was very friendly and helpful.  Recommendation:  book the shuttle early (fills up quickly) if you don't want to use Uber or rent a car.More</t>
   </si>
   <si>
-    <t>SomeDudeFromHouston</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55673-d11637359-r521407005-Four_Points_by_Sheraton_Dallas_Fort_Worth_Airport_North-Coppell_Texas.html</t>
   </si>
   <si>
@@ -735,7 +801,127 @@
     <t>Was looking for some place to stay close to Dallas and found this property. Great location and nice helpful people. Plenty of free parking and close to the highway. I used my points to stay and rates were reasonable.More</t>
   </si>
   <si>
-    <t>sandyjb83</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55673-d11637359-r512855895-Four_Points_by_Sheraton_Dallas_Fort_Worth_Airport_North-Coppell_Texas.html</t>
+  </si>
+  <si>
+    <t>512855895</t>
+  </si>
+  <si>
+    <t>08/14/2017</t>
+  </si>
+  <si>
+    <t>Great Hotel!!</t>
+  </si>
+  <si>
+    <t>Can't start to portray the immense time I had at the lodging. The prices were low and the quality of the rooms were high. Made me feel at home as soon as I walked in and was greeted by a kind gentleman at the front desk. We went to an occasion at the Conference Center, which was helpfully connected to the hotel. The staff helped the occasion flow smoothly. Workers were exceptionally kind and conscious. Generally speaking an incredible involvement with both the Conference Center and hotel! I would exceedingly prescribe this to any individual who is remaining close to the DFW Airport, which is only two exits away, or for facilitating occasions, with a conference center that can hold up to 500 people. The only hotel that I will use when I visit Dallas!MoreShow less</t>
+  </si>
+  <si>
+    <t>Ronak_Kothari_Aquila, Guest Relations Manager at Four Points by Sheraton Dallas Fort Worth Airport North, responded to this reviewResponded August 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 15, 2017</t>
+  </si>
+  <si>
+    <t>Can't start to portray the immense time I had at the lodging. The prices were low and the quality of the rooms were high. Made me feel at home as soon as I walked in and was greeted by a kind gentleman at the front desk. We went to an occasion at the Conference Center, which was helpfully connected to the hotel. The staff helped the occasion flow smoothly. Workers were exceptionally kind and conscious. Generally speaking an incredible involvement with both the Conference Center and hotel! I would exceedingly prescribe this to any individual who is remaining close to the DFW Airport, which is only two exits away, or for facilitating occasions, with a conference center that can hold up to 500 people. The only hotel that I will use when I visit Dallas!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55673-d11637359-r507957078-Four_Points_by_Sheraton_Dallas_Fort_Worth_Airport_North-Coppell_Texas.html</t>
+  </si>
+  <si>
+    <t>507957078</t>
+  </si>
+  <si>
+    <t>08/01/2017</t>
+  </si>
+  <si>
+    <t>Good Staff, Rooms, - BUT Breakfast Not included</t>
+  </si>
+  <si>
+    <t>Staff very friendly - Thank you Gaby.  Rooms ok size, and clean.   What was very surprising that Breakfast was not included.  Charge $10 for small buffet, unlike others in that category of hotels (Hampton).MoreShow less</t>
+  </si>
+  <si>
+    <t>Ronak_Kothari_Aquila, Guest Relations Manager at Four Points by Sheraton Dallas Fort Worth Airport North, responded to this reviewResponded August 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 6, 2017</t>
+  </si>
+  <si>
+    <t>Staff very friendly - Thank you Gaby.  Rooms ok size, and clean.   What was very surprising that Breakfast was not included.  Charge $10 for small buffet, unlike others in that category of hotels (Hampton).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55673-d11637359-r505660556-Four_Points_by_Sheraton_Dallas_Fort_Worth_Airport_North-Coppell_Texas.html</t>
+  </si>
+  <si>
+    <t>505660556</t>
+  </si>
+  <si>
+    <t>07/25/2017</t>
+  </si>
+  <si>
+    <t>Terrible again!</t>
+  </si>
+  <si>
+    <t>Well they have managed to leave me at the airport AGAIN after I called for hotel shuttle and told 20 minutes. After 35 I call back and "new shift" says shuttle never sent. Not my first experience like this with them!  Hotel is a disaster. Service is terrible and I am a Platinum loyalist - but not here again!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Ronak_Kothari_Aquila, Guest Relations Manager at Four Points by Sheraton Dallas Fort Worth Airport North, responded to this reviewResponded July 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 27, 2017</t>
+  </si>
+  <si>
+    <t>Well they have managed to leave me at the airport AGAIN after I called for hotel shuttle and told 20 minutes. After 35 I call back and "new shift" says shuttle never sent. Not my first experience like this with them!  Hotel is a disaster. Service is terrible and I am a Platinum loyalist - but not here again!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55673-d11637359-r502341060-Four_Points_by_Sheraton_Dallas_Fort_Worth_Airport_North-Coppell_Texas.html</t>
+  </si>
+  <si>
+    <t>502341060</t>
+  </si>
+  <si>
+    <t>07/15/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lovely hotel close to airport! </t>
+  </si>
+  <si>
+    <t>Stayed here for one night and would definitely stay again. Great lobby bar with huge flat screen TVs where we watched NBA finals, great bar and the rooms were superb! Comfy beds, crisp white linens, clean and what I expect from a Sheraton. Loved the free parking as we were driving a giant uhaul to move my daughter to Dallas. The hotel was a nice respite in between all our driving and moving chores! The employees were e Trail friendly too! MoreShow less</t>
+  </si>
+  <si>
+    <t>Ronak_Kothari_Aquila, Guest Relations Manager at Four Points by Sheraton Dallas Fort Worth Airport North, responded to this reviewResponded July 19, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 19, 2017</t>
+  </si>
+  <si>
+    <t>Stayed here for one night and would definitely stay again. Great lobby bar with huge flat screen TVs where we watched NBA finals, great bar and the rooms were superb! Comfy beds, crisp white linens, clean and what I expect from a Sheraton. Loved the free parking as we were driving a giant uhaul to move my daughter to Dallas. The hotel was a nice respite in between all our driving and moving chores! The employees were e Trail friendly too! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55673-d11637359-r498614967-Four_Points_by_Sheraton_Dallas_Fort_Worth_Airport_North-Coppell_Texas.html</t>
+  </si>
+  <si>
+    <t>498614967</t>
+  </si>
+  <si>
+    <t>07/04/2017</t>
+  </si>
+  <si>
+    <t>Great location, beautiful spacious rooms, awesome staff</t>
+  </si>
+  <si>
+    <t>Loved this hotel.   Karen at the help desk was very helpful and very friendly. The location to this hotel is awesome... very close to DFW airport, restaurants, shopping.  They offer free parking which is always nice.   They don't have a restaurant for luch, but I believe they offer dinner.   However, there are so many restaurants around that you can get to in a matter of minutes.   Totally recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Ronak_Kothari_Aquila, Guest Relations Manager at Four Points by Sheraton Dallas Fort Worth Airport North, responded to this reviewResponded July 5, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 5, 2017</t>
+  </si>
+  <si>
+    <t>Loved this hotel.   Karen at the help desk was very helpful and very friendly. The location to this hotel is awesome... very close to DFW airport, restaurants, shopping.  They offer free parking which is always nice.   They don't have a restaurant for luch, but I believe they offer dinner.   However, there are so many restaurants around that you can get to in a matter of minutes.   Totally recommend this hotel.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55673-d11637359-r496343540-Four_Points_by_Sheraton_Dallas_Fort_Worth_Airport_North-Coppell_Texas.html</t>
@@ -769,9 +955,6 @@
 Bathroom was clean, had a shower which worked well and had a double sink in the suite. Wifi worked well. At breakfast time, the staff didnt really have a clear idea on what the breakfast benefit was for a platinum. They provided me with vouchers but didnt specify what it could be used on. Was it a credit towards the menu, continental breakfast or use towards the...Had a 2 night stay here. The hotel offers a comped shuttle to/from DFW. While this is technically an airport hotel, its a reasonable distance away as are most airport hotels at DFW. The Hyatt is the only real airport hotel with most other hotels being a solid 10 minutes away at the least.This hotel is pretty new and when I checked in, the staff were not completely up to speed on some of the platinum benefits. No big deal....learning curve and all. Was upgraded to a suite (hey who know four points had suites!) which was nice. It had a nice large living space and a separate bedroom with an attached fairly large bathroom. Decor is a bit on the darker side but nice. For a new hotel, I was suprised that the rooms had the old motel style floor ac's but the ac did work well. There was also good blinds in place to black out the room. There were a couple of plug points by the bedside as well. Bathroom was clean, had a shower which worked well and had a double sink in the suite. Wifi worked well. At breakfast time, the staff didnt really have a clear idea on what the breakfast benefit was for a platinum. They provided me with vouchers but didnt specify what it could be used on. Was it a credit towards the menu, continental breakfast or use towards the buffet? In the end, I was in a rush and hit the buffet and the voucher was accepted as payment. The buffet was decent...eggs, bacon, yogurt, potatoes, coffee etc....mostly just the usual stuff. The hotel also has complimentary coffee set up in the lobby which is a nice touch. There really isnt anything else around the hotel unless you have a car.For me, this is a great option at DFW. New hotel, comfortable room, comp shuttle and breakfast. Will definitely be back.More</t>
   </si>
   <si>
-    <t>3greens2017</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55673-d11637359-r495881882-Four_Points_by_Sheraton_Dallas_Fort_Worth_Airport_North-Coppell_Texas.html</t>
   </si>
   <si>
@@ -787,15 +970,9 @@
     <t>This is a great location if you're flying out of dfw. They offer an airport shuttle and you can leave your car onsite for $8. Happy hour with free beer and snacks on Wednesday was a great start to our vacation. MoreShow less</t>
   </si>
   <si>
-    <t>June 2017</t>
-  </si>
-  <si>
     <t>This is a great location if you're flying out of dfw. They offer an airport shuttle and you can leave your car onsite for $8. Happy hour with free beer and snacks on Wednesday was a great start to our vacation. More</t>
   </si>
   <si>
-    <t>GoGlobalGo</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55673-d11637359-r493227405-Four_Points_by_Sheraton_Dallas_Fort_Worth_Airport_North-Coppell_Texas.html</t>
   </si>
   <si>
@@ -820,9 +997,6 @@
     <t>Stayed here recently for 1 evening before taking off on an early morning flight. Had a slight issue at check-in with the rate but the front desk employee was very kind and accommodating making sure our rate was correct. The hotel is quite spacious and new, good for events. It felt like a new "millennial" hotel because of minimalist/sleek decorating. The room was basic but fit our need. The bed and linens were clean and comfy. My only complaint is a)no hooks to put a towel on when you get out of the open glass shower door and b) an OPEN glass shower door so all the water flies on the floor! Other than that, we didn't get a chance to use any of the amenities but there is an outdoor pool we walked by which looked small. If traveling in/out of DFW, I'd suggest it because of it's location and price!More</t>
   </si>
   <si>
-    <t>Mariekitt24</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55673-d11637359-r490780211-Four_Points_by_Sheraton_Dallas_Fort_Worth_Airport_North-Coppell_Texas.html</t>
   </si>
   <si>
@@ -847,9 +1021,6 @@
     <t>The location was close to places to eat, the room itself was nice, no big complaints. No bathtub but the shower was nice. plenty of tv channels, we just could have used a list of which channel was which.  the pool was heated and my family had a blast swimming, not crowded.  I do wish they had a hot tub though! A clean, affordable place to stay. If they had a hot tub I would stay there again.More</t>
   </si>
   <si>
-    <t>A TripAdvisor Member</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55673-d11637359-r490123440-Four_Points_by_Sheraton_Dallas_Fort_Worth_Airport_North-Coppell_Texas.html</t>
   </si>
   <si>
@@ -868,7 +1039,387 @@
     <t>My trip home sucked! flight canceled but American got me a room at four points. Newer hotel , not luxurious but clean and had a bed. Front desk ladies (epically Gaby) did their best to accommodate large in flow displaced travlers. Unfortunately about 1:30 am alarms went off and entire hotel had to evacuate into the parking lot.When i finally was able to go to sleep it was 3am. Next morning staff was not well informed as i mentioned this mishap however once i made it know they took action.Not a destination hotel but staff goes over and beyond to meet any needs you may have... More</t>
   </si>
   <si>
-    <t>LazyButchers</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55673-d11637359-r489476369-Four_Points_by_Sheraton_Dallas_Fort_Worth_Airport_North-Coppell_Texas.html</t>
+  </si>
+  <si>
+    <t>489476369</t>
+  </si>
+  <si>
+    <t>05/31/2017</t>
+  </si>
+  <si>
+    <t>Terrible experience-will never regurn</t>
+  </si>
+  <si>
+    <t>I stayed there for three nights. They never once changed my bed sheet. I asked for the room service, they kept saying they will be sending someone, but never sent anyone. Receptionist was so unfriendly. Every time, I pass by he was always sitting on the chair and never bothered to smile or even say hello to the guests. He looked so grumpy at all times. Honestly, I felt so unpleasant staying at Four Sheraton. I will never stay here again. And, definitely will not recommend. I left with very bitter experience. I did not need any  of the negative experience thrown at me during my holiday. I could always find better and joyful stay with my buck than this place. MoreShow less</t>
+  </si>
+  <si>
+    <t>Ronak_Kothari_Aquila, Guest Relations Manager at Four Points by Sheraton Dallas Fort Worth Airport North, responded to this reviewResponded June 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 2, 2017</t>
+  </si>
+  <si>
+    <t>I stayed there for three nights. They never once changed my bed sheet. I asked for the room service, they kept saying they will be sending someone, but never sent anyone. Receptionist was so unfriendly. Every time, I pass by he was always sitting on the chair and never bothered to smile or even say hello to the guests. He looked so grumpy at all times. Honestly, I felt so unpleasant staying at Four Sheraton. I will never stay here again. And, definitely will not recommend. I left with very bitter experience. I did not need any  of the negative experience thrown at me during my holiday. I could always find better and joyful stay with my buck than this place. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55673-d11637359-r485781635-Four_Points_by_Sheraton_Dallas_Fort_Worth_Airport_North-Coppell_Texas.html</t>
+  </si>
+  <si>
+    <t>485781635</t>
+  </si>
+  <si>
+    <t>05/19/2017</t>
+  </si>
+  <si>
+    <t>New, Clean, Very Reasonably Priced Accomodation in Coppell, TX</t>
+  </si>
+  <si>
+    <t>A solid choice for those doing Business in the Coppell area.
+This is a relatively new hotel.  My company hosted an event in their building nearby and asked our group to stay in this hotel at a negotiated rate.  It's always a concern when the company does that, but in this case, I was happy with the decision since there are not a whole lot of hotels in the South Coppel area and this was a mere 10 minute drive to our building.
+Of course, the most important aspect of a hotel stay is the sleeping.  The beds are excellent and the bedding was very comfortable.  I was quite comfortable in the bed and heard no noise at all from other guests or the elevators which my room was located close to.  In this hotel, asking to be close to the elevator is a convenience and not a concern about noise, unless perhaps there is an unruly group.  There were no noisy people here that I heard.  Also, and this is most significant, I slept very well and through the night even on the first of two nights in the hotel.  That is a rarity, but it was exceptionally comfortable for sleeping.
+The amenities were adequate.  This isn't the Ritz, but they deliver on the practical things.  The shower had a fixed piece of glass and one walked right into the shower.  There was no tub.  The towels were excellent....A solid choice for those doing Business in the Coppell area.This is a relatively new hotel.  My company hosted an event in their building nearby and asked our group to stay in this hotel at a negotiated rate.  It's always a concern when the company does that, but in this case, I was happy with the decision since there are not a whole lot of hotels in the South Coppel area and this was a mere 10 minute drive to our building.Of course, the most important aspect of a hotel stay is the sleeping.  The beds are excellent and the bedding was very comfortable.  I was quite comfortable in the bed and heard no noise at all from other guests or the elevators which my room was located close to.  In this hotel, asking to be close to the elevator is a convenience and not a concern about noise, unless perhaps there is an unruly group.  There were no noisy people here that I heard.  Also, and this is most significant, I slept very well and through the night even on the first of two nights in the hotel.  That is a rarity, but it was exceptionally comfortable for sleeping.The amenities were adequate.  This isn't the Ritz, but they deliver on the practical things.  The shower had a fixed piece of glass and one walked right into the shower.  There was no tub.  The towels were excellent.  The shower soap and shampoo, along with body wash is located inside the shower in dispensers.  It worked but I was a bit surprised at that.I found the alarm/radio a bit challenging, but since I carry a portable electronic device, it didn't bother me.  My CPAP machine was comfortable on the nightstand and worked fine.  The TV is truly digital and had an adequate picture.  The thermostat allowed me to control the exact temperature I wanted.I believe that when the hotel is full, there might be a long walk to parking from the hotel - the main parking area was in the back.  However, since ours was probably the largest group staying the nights we were there, there weren't a lot of car to park and parking near the front door was straightforward.Breakfast in the morning is in the bar area and it was fine.  Note that the breakfast is not included in the rate and it is self serve except for bringing you the check.  They varied the breakfast menu slightly on each day and offered a free newspaper.  If you want toast, there is one four slice toaster to use, but it is a bit tight if several people want toast at the same time.The doors at this hotel area constructed so that nothing can be shoved under them and they do not slide the bill under the door for you.  You physically have to check out and if you have a lot of people checking out at the same time, there will be a line, but it moves fast.  If your company will allow for electronic receipts (I mean emailed receipts) as receipts, this might be avoided by just arranging with the desk ahead of time and then dropping off your key when you leave.  However, they do have to demagnetize the key when one checks out.  This is the only painful thing I think could affect others.  As I said, if you arrange it in advance, it need not be painful.I was satisfied with the hotel, adequate facilities, everything clean, and very reasonable price.  I recommend the hotel if you are looking for reasonably priced accommodations and need to be close to the DFW airport.  If you are returning a rental car, the Belt Line route to Valley View can take you to the airport and avoid all the traffic - and there is a Quicktrip at the corner of Dividend Lane and Belt Line.All in all, a good place to stay.  Recommended and will stay again if in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ronak_Kothari_Aquila, Guest Relations Manager at Four Points by Sheraton Dallas Fort Worth Airport North, responded to this reviewResponded May 24, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 24, 2017</t>
+  </si>
+  <si>
+    <t>A solid choice for those doing Business in the Coppell area.
+This is a relatively new hotel.  My company hosted an event in their building nearby and asked our group to stay in this hotel at a negotiated rate.  It's always a concern when the company does that, but in this case, I was happy with the decision since there are not a whole lot of hotels in the South Coppel area and this was a mere 10 minute drive to our building.
+Of course, the most important aspect of a hotel stay is the sleeping.  The beds are excellent and the bedding was very comfortable.  I was quite comfortable in the bed and heard no noise at all from other guests or the elevators which my room was located close to.  In this hotel, asking to be close to the elevator is a convenience and not a concern about noise, unless perhaps there is an unruly group.  There were no noisy people here that I heard.  Also, and this is most significant, I slept very well and through the night even on the first of two nights in the hotel.  That is a rarity, but it was exceptionally comfortable for sleeping.
+The amenities were adequate.  This isn't the Ritz, but they deliver on the practical things.  The shower had a fixed piece of glass and one walked right into the shower.  There was no tub.  The towels were excellent....A solid choice for those doing Business in the Coppell area.This is a relatively new hotel.  My company hosted an event in their building nearby and asked our group to stay in this hotel at a negotiated rate.  It's always a concern when the company does that, but in this case, I was happy with the decision since there are not a whole lot of hotels in the South Coppel area and this was a mere 10 minute drive to our building.Of course, the most important aspect of a hotel stay is the sleeping.  The beds are excellent and the bedding was very comfortable.  I was quite comfortable in the bed and heard no noise at all from other guests or the elevators which my room was located close to.  In this hotel, asking to be close to the elevator is a convenience and not a concern about noise, unless perhaps there is an unruly group.  There were no noisy people here that I heard.  Also, and this is most significant, I slept very well and through the night even on the first of two nights in the hotel.  That is a rarity, but it was exceptionally comfortable for sleeping.The amenities were adequate.  This isn't the Ritz, but they deliver on the practical things.  The shower had a fixed piece of glass and one walked right into the shower.  There was no tub.  The towels were excellent.  The shower soap and shampoo, along with body wash is located inside the shower in dispensers.  It worked but I was a bit surprised at that.I found the alarm/radio a bit challenging, but since I carry a portable electronic device, it didn't bother me.  My CPAP machine was comfortable on the nightstand and worked fine.  The TV is truly digital and had an adequate picture.  The thermostat allowed me to control the exact temperature I wanted.I believe that when the hotel is full, there might be a long walk to parking from the hotel - the main parking area was in the back.  However, since ours was probably the largest group staying the nights we were there, there weren't a lot of car to park and parking near the front door was straightforward.Breakfast in the morning is in the bar area and it was fine.  Note that the breakfast is not included in the rate and it is self serve except for bringing you the check.  They varied the breakfast menu slightly on each day and offered a free newspaper.  If you want toast, there is one four slice toaster to use, but it is a bit tight if several people want toast at the same time.The doors at this hotel area constructed so that nothing can be shoved under them and they do not slide the bill under the door for you.  You physically have to check out and if you have a lot of people checking out at the same time, there will be a line, but it moves fast.  If your company will allow for electronic receipts (I mean emailed receipts) as receipts, this might be avoided by just arranging with the desk ahead of time and then dropping off your key when you leave.  However, they do have to demagnetize the key when one checks out.  This is the only painful thing I think could affect others.  As I said, if you arrange it in advance, it need not be painful.I was satisfied with the hotel, adequate facilities, everything clean, and very reasonable price.  I recommend the hotel if you are looking for reasonably priced accommodations and need to be close to the DFW airport.  If you are returning a rental car, the Belt Line route to Valley View can take you to the airport and avoid all the traffic - and there is a Quicktrip at the corner of Dividend Lane and Belt Line.All in all, a good place to stay.  Recommended and will stay again if in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55673-d11637359-r482456924-Four_Points_by_Sheraton_Dallas_Fort_Worth_Airport_North-Coppell_Texas.html</t>
+  </si>
+  <si>
+    <t>482456924</t>
+  </si>
+  <si>
+    <t>05/07/2017</t>
+  </si>
+  <si>
+    <t>Just "OK" for a night</t>
+  </si>
+  <si>
+    <t>We travel frequently for weeks at a time. We stayed here 2 weeks, it will be our last. Front desk and well...most of the staff is not friendly. The front desk staff really needs work. Hope you don't want coffee till after 6 AM .And be prepared to pay $10.00 for a very AVERAGE breakfast. There is not much storage to unpack. 2 small drawers and a tiny closet is all you get. You'll probably want to take a quick shower. There is no shower door and it gets drafty. I got cold while taking a shower!  It's a new hotel so everything is clean. It's really only good for an overnighter, and not any longer of a stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ronak_Kothari_Aquila, Guest Relations Manager at Four Points by Sheraton Dallas Fort Worth Airport North, responded to this reviewResponded May 8, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 8, 2017</t>
+  </si>
+  <si>
+    <t>We travel frequently for weeks at a time. We stayed here 2 weeks, it will be our last. Front desk and well...most of the staff is not friendly. The front desk staff really needs work. Hope you don't want coffee till after 6 AM .And be prepared to pay $10.00 for a very AVERAGE breakfast. There is not much storage to unpack. 2 small drawers and a tiny closet is all you get. You'll probably want to take a quick shower. There is no shower door and it gets drafty. I got cold while taking a shower!  It's a new hotel so everything is clean. It's really only good for an overnighter, and not any longer of a stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55673-d11637359-r481931891-Four_Points_by_Sheraton_Dallas_Fort_Worth_Airport_North-Coppell_Texas.html</t>
+  </si>
+  <si>
+    <t>481931891</t>
+  </si>
+  <si>
+    <t>05/05/2017</t>
+  </si>
+  <si>
+    <t>the best hotel I've ever traveled to</t>
+  </si>
+  <si>
+    <t>I traveled here with a few Adult Friends back in the Summer of 2016. I liked to how I didn't had to worry about my Annoying Parents and my annoying Nieces and Nephew 24 hours Everyday. Nothing to dislike about this place. I also liked to how nice the landscaping and trees were. I also liked to how warm the pool water was. I also liked to how quite the rooms on the south side was.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>I traveled here with a few Adult Friends back in the Summer of 2016. I liked to how I didn't had to worry about my Annoying Parents and my annoying Nieces and Nephew 24 hours Everyday. Nothing to dislike about this place. I also liked to how nice the landscaping and trees were. I also liked to how warm the pool water was. I also liked to how quite the rooms on the south side was.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55673-d11637359-r473918952-Four_Points_by_Sheraton_Dallas_Fort_Worth_Airport_North-Coppell_Texas.html</t>
+  </si>
+  <si>
+    <t>473918952</t>
+  </si>
+  <si>
+    <t>04/09/2017</t>
+  </si>
+  <si>
+    <t>Super nice new hotel</t>
+  </si>
+  <si>
+    <t>Guess I'm allowed to say that this is a new 3 months old "baby" hotel and can also say that I was fortunate enough to had stayed here twice already. I  absolutely highly commend front desk staff Karen, what an asset to this company, she remembered my name the second time she saw me greeted me with such a nice smile and welcoming feeling, made sure I was properly taken care of  including returning my credit card which I completely forgotten on the desk  upon check inn . (Awake since 4am was pretty tired) The hotel is very nice however accross the street at its  sister property The element where I also stayed in the past have happy hour weekdays, although I'm aware happy hour is also offered at The Sheraton is only on Wednesdays, will  be nice to extend hotel guests the complementary happy hour at the element if unable to provide the same kind of service, regardless wether you like or not happy hour I highly recommend it, is perfectly clean, very well appointed rooms modern, super comfy beds, the most important feature is that they do offer free wifi, should be free at any property at thus day and age, friendly staff and the shuttle can take you around within a 5 miles radius for free. MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>Ronak_Kothari_Aquila, Guest Relations Manager at Four Points by Sheraton Dallas Fort Worth Airport North, responded to this reviewResponded April 10, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 10, 2017</t>
+  </si>
+  <si>
+    <t>Guess I'm allowed to say that this is a new 3 months old "baby" hotel and can also say that I was fortunate enough to had stayed here twice already. I  absolutely highly commend front desk staff Karen, what an asset to this company, she remembered my name the second time she saw me greeted me with such a nice smile and welcoming feeling, made sure I was properly taken care of  including returning my credit card which I completely forgotten on the desk  upon check inn . (Awake since 4am was pretty tired) The hotel is very nice however accross the street at its  sister property The element where I also stayed in the past have happy hour weekdays, although I'm aware happy hour is also offered at The Sheraton is only on Wednesdays, will  be nice to extend hotel guests the complementary happy hour at the element if unable to provide the same kind of service, regardless wether you like or not happy hour I highly recommend it, is perfectly clean, very well appointed rooms modern, super comfy beds, the most important feature is that they do offer free wifi, should be free at any property at thus day and age, friendly staff and the shuttle can take you around within a 5 miles radius for free. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55673-d11637359-r472539748-Four_Points_by_Sheraton_Dallas_Fort_Worth_Airport_North-Coppell_Texas.html</t>
+  </si>
+  <si>
+    <t>472539748</t>
+  </si>
+  <si>
+    <t>04/03/2017</t>
+  </si>
+  <si>
+    <t>Hotel Gets A+, But Overnight/early morning  Desk Person Gets C-</t>
+  </si>
+  <si>
+    <t>Great location near DFW; new, so quite clean; ample free parking; inviting Euro-style lobby and common area nearby; simple, but adequately furnished room; great shower; charming desk person at 9:30 pm check in along with driver standing by with a friendly demeanor. Morning desk person, who presumably worked overnight, was grumpy/not pleasant. Quite surprising and took away from an otherwise excellent stay. Bar personnel very accommodating re coffee. Thx!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>Ronak_Kothari_Aquila, Guest Relations Manager at Four Points by Sheraton Dallas Fort Worth Airport North, responded to this reviewResponded April 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 4, 2017</t>
+  </si>
+  <si>
+    <t>Great location near DFW; new, so quite clean; ample free parking; inviting Euro-style lobby and common area nearby; simple, but adequately furnished room; great shower; charming desk person at 9:30 pm check in along with driver standing by with a friendly demeanor. Morning desk person, who presumably worked overnight, was grumpy/not pleasant. Quite surprising and took away from an otherwise excellent stay. Bar personnel very accommodating re coffee. Thx!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55673-d11637359-r471270934-Four_Points_by_Sheraton_Dallas_Fort_Worth_Airport_North-Coppell_Texas.html</t>
+  </si>
+  <si>
+    <t>471270934</t>
+  </si>
+  <si>
+    <t>03/29/2017</t>
+  </si>
+  <si>
+    <t>Good clean simple</t>
+  </si>
+  <si>
+    <t>Stayed last 4 weeks. New hotel. Good and clean. Breakfast is ok. Bar is good. Overall good business destination. Health club is a little small but acceptable. Good value and helpful staff. I will stay in future. MoreShow less</t>
+  </si>
+  <si>
+    <t>Ronak_Kothari_Aquila, Guest Relations Manager at Four Points by Sheraton Dallas Fort Worth Airport North, responded to this reviewResponded March 31, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 31, 2017</t>
+  </si>
+  <si>
+    <t>Stayed last 4 weeks. New hotel. Good and clean. Breakfast is ok. Bar is good. Overall good business destination. Health club is a little small but acceptable. Good value and helpful staff. I will stay in future. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55673-d11637359-r469716016-Four_Points_by_Sheraton_Dallas_Fort_Worth_Airport_North-Coppell_Texas.html</t>
+  </si>
+  <si>
+    <t>469716016</t>
+  </si>
+  <si>
+    <t>03/23/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Still working out startup issues </t>
+  </si>
+  <si>
+    <t>Stayed here for 3 nights on a recent business trip. 
+The good. 
+* bedding is very comfortable 
+* shower is very good
+* wifi coverage seems good both in the room and the lobby 
+The bad
+* no fridge in the room.  Most hotels in this price range provide this as a standard feature 
+* breakfast is supposed to be a buffet served in the bar area.  Every day there was at least one thing wrong. Given that they charge 10.83 for the breakfast buffet I would expect something better. 
+Day 1.  Serving spoon was dirty / had dried food scraps on it.  When I pointed this out to the employee she took it away with no comment. Only napkins available were tiny bar napkins- the kind you get with a beer
+Day 2. Alarm clock was going off non stop.  Turns out they have an alarm clock at the bar and it must have been set to 6 am.  No employee seemed interested in dealing with this so I hit the snooze button to stop the annoying alarm. 
+Day 3.  No milk in the breakfast buffet. Had to ask an employee to bring this out.  
+The in between comments 
+* only a few employees seemed friendly. The  others seemed bothered to help me deal with the various issues I raised. 
+* no night lights. The room gets very dark when the lights are off and shades drawn. Finding your...Stayed here for 3 nights on a recent business trip. The good. * bedding is very comfortable * shower is very good* wifi coverage seems good both in the room and the lobby The bad* no fridge in the room.  Most hotels in this price range provide this as a standard feature * breakfast is supposed to be a buffet served in the bar area.  Every day there was at least one thing wrong. Given that they charge 10.83 for the breakfast buffet I would expect something better. Day 1.  Serving spoon was dirty / had dried food scraps on it.  When I pointed this out to the employee she took it away with no comment. Only napkins available were tiny bar napkins- the kind you get with a beerDay 2. Alarm clock was going off non stop.  Turns out they have an alarm clock at the bar and it must have been set to 6 am.  No employee seemed interested in dealing with this so I hit the snooze button to stop the annoying alarm. Day 3.  No milk in the breakfast buffet. Had to ask an employee to bring this out.  The in between comments * only a few employees seemed friendly. The  others seemed bothered to help me deal with the various issues I raised. * no night lights. The room gets very dark when the lights are off and shades drawn. Finding your way to the toilet in the night is a challenge.  Solution us to leave the shades partially open. * a/c was sufficiently loud to drown out hallway noise Overall. There are plenty of better hotels  nearby at this price point.  MoreShow less</t>
+  </si>
+  <si>
+    <t>Ronak_Kothari_Aquila, Guest Relations Manager at Four Points by Sheraton Dallas Fort Worth Airport North, responded to this reviewResponded March 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 27, 2017</t>
+  </si>
+  <si>
+    <t>Stayed here for 3 nights on a recent business trip. 
+The good. 
+* bedding is very comfortable 
+* shower is very good
+* wifi coverage seems good both in the room and the lobby 
+The bad
+* no fridge in the room.  Most hotels in this price range provide this as a standard feature 
+* breakfast is supposed to be a buffet served in the bar area.  Every day there was at least one thing wrong. Given that they charge 10.83 for the breakfast buffet I would expect something better. 
+Day 1.  Serving spoon was dirty / had dried food scraps on it.  When I pointed this out to the employee she took it away with no comment. Only napkins available were tiny bar napkins- the kind you get with a beer
+Day 2. Alarm clock was going off non stop.  Turns out they have an alarm clock at the bar and it must have been set to 6 am.  No employee seemed interested in dealing with this so I hit the snooze button to stop the annoying alarm. 
+Day 3.  No milk in the breakfast buffet. Had to ask an employee to bring this out.  
+The in between comments 
+* only a few employees seemed friendly. The  others seemed bothered to help me deal with the various issues I raised. 
+* no night lights. The room gets very dark when the lights are off and shades drawn. Finding your...Stayed here for 3 nights on a recent business trip. The good. * bedding is very comfortable * shower is very good* wifi coverage seems good both in the room and the lobby The bad* no fridge in the room.  Most hotels in this price range provide this as a standard feature * breakfast is supposed to be a buffet served in the bar area.  Every day there was at least one thing wrong. Given that they charge 10.83 for the breakfast buffet I would expect something better. Day 1.  Serving spoon was dirty / had dried food scraps on it.  When I pointed this out to the employee she took it away with no comment. Only napkins available were tiny bar napkins- the kind you get with a beerDay 2. Alarm clock was going off non stop.  Turns out they have an alarm clock at the bar and it must have been set to 6 am.  No employee seemed interested in dealing with this so I hit the snooze button to stop the annoying alarm. Day 3.  No milk in the breakfast buffet. Had to ask an employee to bring this out.  The in between comments * only a few employees seemed friendly. The  others seemed bothered to help me deal with the various issues I raised. * no night lights. The room gets very dark when the lights are off and shades drawn. Finding your way to the toilet in the night is a challenge.  Solution us to leave the shades partially open. * a/c was sufficiently loud to drown out hallway noise Overall. There are plenty of better hotels  nearby at this price point.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55673-d11637359-r468171378-Four_Points_by_Sheraton_Dallas_Fort_Worth_Airport_North-Coppell_Texas.html</t>
+  </si>
+  <si>
+    <t>468171378</t>
+  </si>
+  <si>
+    <t>03/17/2017</t>
+  </si>
+  <si>
+    <t>Standard Four Points</t>
+  </si>
+  <si>
+    <t>Stayed one night while traveling. Staff was friendly, room was as expected, there is a free hotel airport shuttle that was once convenient &amp; easy. Restaurant &amp; bar in the lobby gives some food options. Breakfast buffet was marginal at best. Gym was pretty decent w free weights &amp; cardio machines.I'd stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ronak_Kothari_Aquila, Guest Relations Manager at Four Points by Sheraton Dallas Fort Worth Airport North, responded to this reviewResponded March 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 20, 2017</t>
+  </si>
+  <si>
+    <t>Stayed one night while traveling. Staff was friendly, room was as expected, there is a free hotel airport shuttle that was once convenient &amp; easy. Restaurant &amp; bar in the lobby gives some food options. Breakfast buffet was marginal at best. Gym was pretty decent w free weights &amp; cardio machines.I'd stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55673-d11637359-r467825364-Four_Points_by_Sheraton_Dallas_Fort_Worth_Airport_North-Coppell_Texas.html</t>
+  </si>
+  <si>
+    <t>467825364</t>
+  </si>
+  <si>
+    <t>03/16/2017</t>
+  </si>
+  <si>
+    <t>Overnight Stay</t>
+  </si>
+  <si>
+    <t>Selected this hotel for an overnight stay to catch an early flight the following morning. This hotel is new and fairly close to the airport. Other hotels may be closer but are rather dated in accommodations. There is a free round trip shuttle service to the airport, just phone on arrival for pickup and book for return. This is a standard hotel with a staff that's eager to please. The rooms are a fair size and the bedding is comfortable. It's also nice to have all the facilities working and there is free wireless internet access.  Breakfast is available for a minimal fee. No time to try the food but had a complimentary coffee. Four Points brings a breath of fresh air to the staid hotels in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ronak_Kothari_Aquila, Guest Relations Manager at Four Points by Sheraton Dallas Fort Worth Airport North, responded to this reviewResponded March 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 17, 2017</t>
+  </si>
+  <si>
+    <t>Selected this hotel for an overnight stay to catch an early flight the following morning. This hotel is new and fairly close to the airport. Other hotels may be closer but are rather dated in accommodations. There is a free round trip shuttle service to the airport, just phone on arrival for pickup and book for return. This is a standard hotel with a staff that's eager to please. The rooms are a fair size and the bedding is comfortable. It's also nice to have all the facilities working and there is free wireless internet access.  Breakfast is available for a minimal fee. No time to try the food but had a complimentary coffee. Four Points brings a breath of fresh air to the staid hotels in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55673-d11637359-r467596813-Four_Points_by_Sheraton_Dallas_Fort_Worth_Airport_North-Coppell_Texas.html</t>
+  </si>
+  <si>
+    <t>467596813</t>
+  </si>
+  <si>
+    <t>03/15/2017</t>
+  </si>
+  <si>
+    <t>Bring Ear Plugs</t>
+  </si>
+  <si>
+    <t>I have always enjoyed my stays at SPG properties and I would recommend these hotels to anyone. They have great staff, clean accommodations, and at most I've visited the bar/restaurant is good. My only complaint at Four Points this time were the thin walls. I could hear EVERYTHING from crying kids, doors closing and people walking the halls. I would probably give it another chance but next time bring ear plugs.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ronak_Kothari_Aquila, Guest Relations Manager at Four Points by Sheraton Dallas Fort Worth Airport North, responded to this reviewResponded March 16, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 16, 2017</t>
+  </si>
+  <si>
+    <t>I have always enjoyed my stays at SPG properties and I would recommend these hotels to anyone. They have great staff, clean accommodations, and at most I've visited the bar/restaurant is good. My only complaint at Four Points this time were the thin walls. I could hear EVERYTHING from crying kids, doors closing and people walking the halls. I would probably give it another chance but next time bring ear plugs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55673-d11637359-r466170532-Four_Points_by_Sheraton_Dallas_Fort_Worth_Airport_North-Coppell_Texas.html</t>
+  </si>
+  <si>
+    <t>466170532</t>
+  </si>
+  <si>
+    <t>03/10/2017</t>
+  </si>
+  <si>
+    <t>Needs adult supervision</t>
+  </si>
+  <si>
+    <t>We reserved a room for our gymnastics team coaches in this hotel. We completed the online submission form to pay for the rooms with our credit card and received a confirmation. They then charged the coaches saying that the online submission was not sufficient. Finally the "manager" came on the phone to take the credit card information, and rudely hung up while I was n the middle of asking a question. Clearly this hotel is in need of adult supervision. I hope for our coaches' sake that the rest of the staff is more competent and professional than the desk staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>Ronak_Kothari_Aquila, Guest Relations Manager at Four Points by Sheraton Dallas Fort Worth Airport North, responded to this reviewResponded March 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 14, 2017</t>
+  </si>
+  <si>
+    <t>We reserved a room for our gymnastics team coaches in this hotel. We completed the online submission form to pay for the rooms with our credit card and received a confirmation. They then charged the coaches saying that the online submission was not sufficient. Finally the "manager" came on the phone to take the credit card information, and rudely hung up while I was n the middle of asking a question. Clearly this hotel is in need of adult supervision. I hope for our coaches' sake that the rest of the staff is more competent and professional than the desk staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55673-d11637359-r465599616-Four_Points_by_Sheraton_Dallas_Fort_Worth_Airport_North-Coppell_Texas.html</t>
+  </si>
+  <si>
+    <t>465599616</t>
+  </si>
+  <si>
+    <t>03/08/2017</t>
+  </si>
+  <si>
+    <t>Brand new!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice place, brand new! I love the shower, bathroom. Bed was very comfortable. Pool is tiny, and no hot tub. Great location to the airport and food. Need to drive to food though. Only issue is the very thin walls! Loud doors also, so could hear when everyone leaves the room. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55673-d11637359-r457093333-Four_Points_by_Sheraton_Dallas_Fort_Worth_Airport_North-Coppell_Texas.html</t>
+  </si>
+  <si>
+    <t>457093333</t>
+  </si>
+  <si>
+    <t>02/04/2017</t>
+  </si>
+  <si>
+    <t>Great for a pre-flight stay</t>
+  </si>
+  <si>
+    <t>Stayed here for a quick stop over during a long series of flights. It's about 10-15 minutes from the airport depending on traffics. Nice, new hotel but nothing around it. Spacious room and awesome bed. Shuttle is on demand so if you're counting on using the hotel phone system at the airport you'll need to pick one of two other Sheraton hotels pre-loaded in the system and ask them to connect your call to this hotel as its not an option to connect to. Staff were friendly. Due to low numbers in the hotel the breakfast was not offered at the regular time for us to have before we had to check-out. MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>John P, General Manager at Four Points by Sheraton Dallas Fort Worth Airport North, responded to this reviewResponded February 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 14, 2017</t>
+  </si>
+  <si>
+    <t>Stayed here for a quick stop over during a long series of flights. It's about 10-15 minutes from the airport depending on traffics. Nice, new hotel but nothing around it. Spacious room and awesome bed. Shuttle is on demand so if you're counting on using the hotel phone system at the airport you'll need to pick one of two other Sheraton hotels pre-loaded in the system and ask them to connect your call to this hotel as its not an option to connect to. Staff were friendly. Due to low numbers in the hotel the breakfast was not offered at the regular time for us to have before we had to check-out. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55673-d11637359-r456458447-Four_Points_by_Sheraton_Dallas_Fort_Worth_Airport_North-Coppell_Texas.html</t>
+  </si>
+  <si>
+    <t>456458447</t>
+  </si>
+  <si>
+    <t>02/01/2017</t>
+  </si>
+  <si>
+    <t>Nice new hotel!</t>
+  </si>
+  <si>
+    <t>Brand new hotel.  Friendly and helpful staff, nice clean property, gym, pool and restaurant and bar.  And RIDICULOUSLY comfy beds! Affordable room service was a plus. Would recommend and stay again.....MoreShow less</t>
+  </si>
+  <si>
+    <t>Brand new hotel.  Friendly and helpful staff, nice clean property, gym, pool and restaurant and bar.  And RIDICULOUSLY comfy beds! Affordable room service was a plus. Would recommend and stay again.....More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55673-d11637359-r455712307-Four_Points_by_Sheraton_Dallas_Fort_Worth_Airport_North-Coppell_Texas.html</t>
@@ -889,18 +1440,9 @@
     <t>January 2017</t>
   </si>
   <si>
-    <t>John P, General Manager at Four Points by Sheraton Dallas Fort Worth Airport North, responded to this reviewResponded February 14, 2017</t>
-  </si>
-  <si>
-    <t>Responded February 14, 2017</t>
-  </si>
-  <si>
     <t>For a new hotel. you would think that they'd have the basics sorted. The rooms are decent and for the most part the staff are friendly and helpful but it is far from consistent.  Don't bother trying to get your laundry done or delivered on time.  Don't expect that any issues will be dealt with by management.  Such a disappointment compared to other SPG properties.More</t>
   </si>
   <si>
-    <t>Northcountrychick</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55673-d11637359-r455207542-Four_Points_by_Sheraton_Dallas_Fort_Worth_Airport_North-Coppell_Texas.html</t>
   </si>
   <si>
@@ -919,9 +1461,6 @@
     <t>We arrived on a delayed flight from Mexico and were greeted by a lovely, friendly desk clerk. There were several folks milling around even though it was past ten p.m.. We were a little worried it would be noisy, but not a sound all night.  We were sent to our room on the 6th floor.  We opened the door to a lovely, bright and well furnished room. The bed/pillows were the most comfortable we have experienced in ages. The bathroom was shiny and new with everything you would need for an overnight stay. WiFi strong. Coffee/water and ice bucket if you needed.  Iron and ironing board.. Shuttle was free to and from the airport and gentleman very helpful indeed.  Checking out was a breeze. We will be staying there again I am sure.  Just a few miles from our granddaughter and husband who work with SouthWest as well.  Thank you so much Four Points.More</t>
   </si>
   <si>
-    <t>johnruda</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55673-d11637359-r452242870-Four_Points_by_Sheraton_Dallas_Fort_Worth_Airport_North-Coppell_Texas.html</t>
   </si>
   <si>
@@ -937,9 +1476,6 @@
     <t>The staff was friendly.  The room was spotless and well designed.  It had an urban feel due to high ceilings and some of the styling, but didn't lack comfort.  The bed was comfortable, due in part to the brand new bedding including a duvet.  The bathroom has a stall shower with wall mounted dispensers.</t>
   </si>
   <si>
-    <t>HJFHJF</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55673-d11637359-r450565735-Four_Points_by_Sheraton_Dallas_Fort_Worth_Airport_North-Coppell_Texas.html</t>
   </si>
   <si>
@@ -955,9 +1491,6 @@
     <t>4 to 6 miles away from the airport but worth the short drive and their shuttle come to pick you up at the airport. The room was large than the norm, and the staff was quite professional and welcoming.  I would stay in this place again without any hesitation.</t>
   </si>
   <si>
-    <t>jasonwskinner</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55673-d11637359-r445279488-Four_Points_by_Sheraton_Dallas_Fort_Worth_Airport_North-Coppell_Texas.html</t>
   </si>
   <si>
@@ -977,9 +1510,6 @@
   </si>
   <si>
     <t>We stayed at this hotel for a corporate conference and we were treated with white gloves from the moment we walked in the door. The hotel is brand new so everything is wonderful from the conference center and business facilities to the room and fitness center. This trip was for business. But we will come back for a weekend to check out a lot of the dining and attractions we saw nearby. And it is so close to the airport. The only complaint is that they were unable to serve alcohol in the lounge. But there were postings up that the permit was coming soon. To the new ownership in Coppell - well done!More</t>
-  </si>
-  <si>
-    <t>ryanmason78</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55673-d11637359-r444712839-Four_Points_by_Sheraton_Dallas_Fort_Worth_Airport_North-Coppell_Texas.html</t>
@@ -1497,47 +2027,43 @@
       <c r="A2" t="n">
         <v>63811</v>
       </c>
-      <c r="B2" t="n">
-        <v>2463</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
-        <v>45</v>
-      </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" t="n">
-        <v>4</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>52</v>
-      </c>
-      <c r="O2" t="s">
-        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1549,60 +2075,56 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
         <v>54</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>55</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>63811</v>
       </c>
-      <c r="B3" t="n">
-        <v>137928</v>
-      </c>
-      <c r="C3" t="s">
-        <v>57</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
         <v>58</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>59</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>60</v>
-      </c>
-      <c r="K3" t="s">
-        <v>61</v>
-      </c>
-      <c r="L3" t="s">
-        <v>62</v>
       </c>
       <c r="M3" t="n">
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="O3" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1614,60 +2136,56 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="X3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="Y3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>63811</v>
       </c>
-      <c r="B4" t="n">
-        <v>137929</v>
-      </c>
-      <c r="C4" t="s">
-        <v>68</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
         <v>69</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
-        <v>70</v>
-      </c>
-      <c r="J4" t="s">
-        <v>71</v>
-      </c>
-      <c r="K4" t="s">
-        <v>72</v>
-      </c>
-      <c r="L4" t="s">
-        <v>73</v>
-      </c>
-      <c r="M4" t="n">
-        <v>3</v>
-      </c>
-      <c r="N4" t="s">
-        <v>74</v>
-      </c>
       <c r="O4" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1679,61 +2197,53 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="X4" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="Y4" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>63811</v>
       </c>
-      <c r="B5" t="n">
-        <v>137930</v>
-      </c>
-      <c r="C5" t="s">
-        <v>79</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I5" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="J5" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="K5" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="L5" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="M5" t="n">
-        <v>4</v>
-      </c>
-      <c r="N5" t="s">
-        <v>85</v>
-      </c>
-      <c r="O5" t="s">
-        <v>75</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N5" t="s"/>
+      <c r="O5" t="s"/>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
@@ -1744,60 +2254,56 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="X5" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="Y5" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>63811</v>
       </c>
-      <c r="B6" t="n">
-        <v>2515</v>
-      </c>
-      <c r="C6" t="s">
-        <v>89</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I6" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J6" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="K6" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="L6" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="M6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1809,273 +2315,239 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="X6" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="Y6" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>63811</v>
       </c>
-      <c r="B7" t="n">
-        <v>137931</v>
-      </c>
-      <c r="C7" t="s">
-        <v>99</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="J7" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="K7" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="L7" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="M7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
-      <c r="R7" t="n">
-        <v>2</v>
-      </c>
+      <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>4</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="X7" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="Y7" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>63811</v>
       </c>
-      <c r="B8" t="n">
-        <v>137932</v>
-      </c>
-      <c r="C8" t="s">
-        <v>108</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="J8" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="K8" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="L8" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="P8" t="s"/>
-      <c r="Q8" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
-      <c r="S8" t="n">
-        <v>5</v>
-      </c>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>1</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="X8" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="Y8" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>63811</v>
       </c>
-      <c r="B9" t="n">
-        <v>99358</v>
-      </c>
-      <c r="C9" t="s">
-        <v>118</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="J9" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="K9" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="L9" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="M9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
-      <c r="R9" t="n">
-        <v>5</v>
-      </c>
-      <c r="S9" t="n">
-        <v>4</v>
-      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>4</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
+        <v>114</v>
+      </c>
+      <c r="X9" t="s">
         <v>115</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>116</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>63811</v>
       </c>
-      <c r="B10" t="n">
-        <v>137933</v>
-      </c>
-      <c r="C10" t="s">
-        <v>125</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="J10" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="K10" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="L10" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="M10" t="n">
         <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -2087,261 +2559,257 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="X10" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="Y10" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>63811</v>
       </c>
-      <c r="B11" t="n">
-        <v>21208</v>
-      </c>
-      <c r="C11" t="s">
-        <v>134</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="J11" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="K11" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="L11" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="M11" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
-      </c>
-      <c r="P11" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2</v>
+      </c>
       <c r="Q11" t="s"/>
-      <c r="R11" t="s"/>
+      <c r="R11" t="n">
+        <v>2</v>
+      </c>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="X11" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="Y11" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>63811</v>
       </c>
-      <c r="B12" t="n">
-        <v>137934</v>
-      </c>
-      <c r="C12" t="s">
-        <v>143</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="J12" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="K12" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="L12" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>63</v>
+        <v>139</v>
       </c>
       <c r="O12" t="s">
-        <v>149</v>
+        <v>52</v>
       </c>
       <c r="P12" t="s"/>
-      <c r="Q12" t="s"/>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
       <c r="R12" t="s"/>
-      <c r="S12" t="s"/>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
       <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="X12" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="Y12" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>63811</v>
       </c>
-      <c r="B13" t="n">
-        <v>137935</v>
-      </c>
-      <c r="C13" t="s">
-        <v>153</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I13" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="J13" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="K13" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="L13" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>139</v>
+      </c>
+      <c r="O13" t="s">
+        <v>52</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="n">
         <v>5</v>
       </c>
-      <c r="N13" t="s">
-        <v>159</v>
-      </c>
-      <c r="O13" t="s">
-        <v>149</v>
-      </c>
-      <c r="P13" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>5</v>
-      </c>
-      <c r="R13" t="s"/>
-      <c r="S13" t="s"/>
+      <c r="S13" t="n">
+        <v>4</v>
+      </c>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="X13" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="Y13" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>63811</v>
       </c>
-      <c r="B14" t="n">
-        <v>137936</v>
-      </c>
-      <c r="C14" t="s">
-        <v>163</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I14" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="J14" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="K14" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="L14" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="M14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="O14" t="s">
-        <v>169</v>
+        <v>52</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2353,60 +2821,56 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="X14" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="Y14" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>63811</v>
       </c>
-      <c r="B15" t="n">
-        <v>137937</v>
-      </c>
-      <c r="C15" t="s">
-        <v>173</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>174</v>
+        <v>157</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="J15" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="K15" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="L15" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="M15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>179</v>
+        <v>139</v>
       </c>
       <c r="O15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2418,211 +2882,187 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="X15" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="Y15" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>63811</v>
       </c>
-      <c r="B16" t="n">
-        <v>16846</v>
-      </c>
-      <c r="C16" t="s">
-        <v>183</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="J16" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="K16" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="L16" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="M16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="O16" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="P16" t="s"/>
-      <c r="Q16" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
-      <c r="S16" t="n">
-        <v>4</v>
-      </c>
+      <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="n">
-        <v>4</v>
-      </c>
+      <c r="U16" t="s"/>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="X16" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="Y16" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>63811</v>
       </c>
-      <c r="B17" t="n">
-        <v>30513</v>
-      </c>
-      <c r="C17" t="s">
-        <v>193</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="J17" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
       <c r="K17" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="L17" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="M17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="O17" t="s">
-        <v>169</v>
-      </c>
-      <c r="P17" t="n">
-        <v>3</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
       <c r="R17" t="s"/>
-      <c r="S17" t="n">
-        <v>2</v>
-      </c>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>1</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="X17" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="Y17" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>63811</v>
       </c>
-      <c r="B18" t="n">
-        <v>137938</v>
-      </c>
-      <c r="C18" t="s">
-        <v>202</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>203</v>
+        <v>184</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="J18" t="s">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="K18" t="s">
-        <v>206</v>
+        <v>187</v>
       </c>
       <c r="L18" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
-      </c>
-      <c r="P18" t="s"/>
+        <v>171</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
       <c r="Q18" t="n">
         <v>5</v>
       </c>
       <c r="R18" t="s"/>
-      <c r="S18" t="n">
-        <v>5</v>
-      </c>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
         <v>5</v>
@@ -2631,60 +3071,56 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="X18" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="Y18" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>63811</v>
       </c>
-      <c r="B19" t="n">
-        <v>137939</v>
-      </c>
-      <c r="C19" t="s">
-        <v>211</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>212</v>
+        <v>193</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I19" t="s">
-        <v>213</v>
+        <v>194</v>
       </c>
       <c r="J19" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="K19" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="L19" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="M19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>198</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -2696,334 +3132,318 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="X19" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="Y19" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>63811</v>
       </c>
-      <c r="B20" t="n">
-        <v>157</v>
-      </c>
-      <c r="C20" t="s">
-        <v>220</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I20" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="J20" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="K20" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="L20" t="s">
-        <v>225</v>
+        <v>206</v>
       </c>
       <c r="M20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N20" t="s">
-        <v>85</v>
+        <v>207</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
-      </c>
-      <c r="P20" t="n">
-        <v>4</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
       <c r="R20" t="s"/>
       <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>5</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="X20" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
       <c r="Y20" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>63811</v>
       </c>
-      <c r="B21" t="n">
-        <v>137940</v>
-      </c>
-      <c r="C21" t="s">
-        <v>229</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I21" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
       <c r="J21" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="K21" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="L21" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="M21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="O21" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="P21" t="s"/>
-      <c r="Q21" t="s"/>
+      <c r="Q21" t="n">
+        <v>4</v>
+      </c>
       <c r="R21" t="s"/>
       <c r="S21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="X21" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="Y21" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>63811</v>
       </c>
-      <c r="B22" t="n">
-        <v>33017</v>
-      </c>
-      <c r="C22" t="s">
-        <v>239</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I22" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="J22" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
       <c r="K22" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
       <c r="L22" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="M22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N22" t="s">
-        <v>245</v>
+        <v>207</v>
       </c>
       <c r="O22" t="s">
-        <v>169</v>
+        <v>198</v>
       </c>
       <c r="P22" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q22" t="s"/>
       <c r="R22" t="s"/>
-      <c r="S22" t="s"/>
+      <c r="S22" t="n">
+        <v>2</v>
+      </c>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>246</v>
+        <v>225</v>
       </c>
       <c r="X22" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
       <c r="Y22" t="s">
-        <v>248</v>
+        <v>227</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>63811</v>
       </c>
-      <c r="B23" t="n">
-        <v>137941</v>
-      </c>
-      <c r="C23" t="s">
-        <v>249</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I23" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="J23" t="s">
-        <v>252</v>
+        <v>230</v>
       </c>
       <c r="K23" t="s">
-        <v>253</v>
+        <v>231</v>
       </c>
       <c r="L23" t="s">
-        <v>254</v>
+        <v>232</v>
       </c>
       <c r="M23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>255</v>
+        <v>207</v>
       </c>
       <c r="O23" t="s">
-        <v>149</v>
+        <v>52</v>
       </c>
       <c r="P23" t="s"/>
-      <c r="Q23" t="s"/>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
       <c r="R23" t="s"/>
-      <c r="S23" t="s"/>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
       <c r="T23" t="s"/>
-      <c r="U23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="X23" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="Y23" t="s">
-        <v>256</v>
+        <v>235</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>63811</v>
       </c>
-      <c r="B24" t="n">
-        <v>137942</v>
-      </c>
-      <c r="C24" t="s">
-        <v>257</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I24" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="J24" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="K24" t="s">
-        <v>261</v>
+        <v>239</v>
       </c>
       <c r="L24" t="s">
-        <v>262</v>
+        <v>240</v>
       </c>
       <c r="M24" t="n">
         <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>245</v>
+        <v>207</v>
       </c>
       <c r="O24" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3035,469 +3455,451 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="X24" t="s">
-        <v>264</v>
+        <v>242</v>
       </c>
       <c r="Y24" t="s">
-        <v>265</v>
+        <v>243</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>63811</v>
       </c>
-      <c r="B25" t="n">
-        <v>137943</v>
-      </c>
-      <c r="C25" t="s">
-        <v>266</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I25" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="J25" t="s">
-        <v>269</v>
+        <v>246</v>
       </c>
       <c r="K25" t="s">
-        <v>270</v>
+        <v>247</v>
       </c>
       <c r="L25" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
       <c r="M25" t="n">
         <v>4</v>
       </c>
       <c r="N25" t="s">
-        <v>255</v>
+        <v>113</v>
       </c>
       <c r="O25" t="s">
-        <v>149</v>
-      </c>
-      <c r="P25" t="s"/>
-      <c r="Q25" t="n">
+        <v>52</v>
+      </c>
+      <c r="P25" t="n">
         <v>4</v>
       </c>
+      <c r="Q25" t="s"/>
       <c r="R25" t="s"/>
       <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="X25" t="s">
-        <v>273</v>
+        <v>250</v>
       </c>
       <c r="Y25" t="s">
-        <v>274</v>
+        <v>251</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>63811</v>
       </c>
-      <c r="B26" t="n">
-        <v>7</v>
-      </c>
-      <c r="C26" t="s">
-        <v>275</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>276</v>
+        <v>252</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I26" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="J26" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="K26" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="L26" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="M26" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>198</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
       <c r="R26" t="s"/>
-      <c r="S26" t="s"/>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
       <c r="T26" t="s"/>
-      <c r="U26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>272</v>
+        <v>258</v>
       </c>
       <c r="X26" t="s">
-        <v>273</v>
+        <v>259</v>
       </c>
       <c r="Y26" t="s">
-        <v>281</v>
+        <v>260</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>63811</v>
       </c>
-      <c r="B27" t="n">
-        <v>137944</v>
-      </c>
-      <c r="C27" t="s">
-        <v>282</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>283</v>
+        <v>261</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I27" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="J27" t="s">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="K27" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
       <c r="L27" t="s">
-        <v>287</v>
+        <v>265</v>
       </c>
       <c r="M27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>288</v>
+        <v>216</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
-      </c>
-      <c r="P27" t="s"/>
+        <v>171</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
       <c r="Q27" t="s"/>
-      <c r="R27" t="s"/>
-      <c r="S27" t="n">
-        <v>4</v>
-      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="s"/>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>289</v>
+        <v>266</v>
       </c>
       <c r="X27" t="s">
-        <v>290</v>
+        <v>267</v>
       </c>
       <c r="Y27" t="s">
-        <v>291</v>
+        <v>268</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>63811</v>
       </c>
-      <c r="B28" t="n">
-        <v>137945</v>
-      </c>
-      <c r="C28" t="s">
-        <v>292</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>293</v>
+        <v>269</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I28" t="s">
-        <v>294</v>
+        <v>270</v>
       </c>
       <c r="J28" t="s">
-        <v>295</v>
+        <v>271</v>
       </c>
       <c r="K28" t="s">
-        <v>296</v>
+        <v>272</v>
       </c>
       <c r="L28" t="s">
-        <v>297</v>
+        <v>273</v>
       </c>
       <c r="M28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N28" t="s">
-        <v>288</v>
+        <v>216</v>
       </c>
       <c r="O28" t="s">
-        <v>75</v>
-      </c>
-      <c r="P28" t="n">
-        <v>4</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
       <c r="R28" t="n">
-        <v>5</v>
-      </c>
-      <c r="S28" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>4</v>
+      </c>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s"/>
-      <c r="X28" t="s"/>
+      <c r="W28" t="s">
+        <v>274</v>
+      </c>
+      <c r="X28" t="s">
+        <v>275</v>
+      </c>
       <c r="Y28" t="s">
-        <v>298</v>
+        <v>276</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>63811</v>
       </c>
-      <c r="B29" t="n">
-        <v>132285</v>
-      </c>
-      <c r="C29" t="s">
-        <v>299</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>300</v>
+        <v>277</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I29" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="J29" t="s">
-        <v>302</v>
+        <v>279</v>
       </c>
       <c r="K29" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
       <c r="L29" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
       <c r="M29" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>288</v>
+        <v>216</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
-      </c>
-      <c r="P29" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
       <c r="R29" t="s"/>
       <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="n">
-        <v>5</v>
-      </c>
+      <c r="U29" t="s"/>
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s"/>
-      <c r="X29" t="s"/>
+      <c r="W29" t="s">
+        <v>282</v>
+      </c>
+      <c r="X29" t="s">
+        <v>283</v>
+      </c>
       <c r="Y29" t="s">
-        <v>304</v>
+        <v>284</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>63811</v>
       </c>
-      <c r="B30" t="n">
-        <v>137946</v>
-      </c>
-      <c r="C30" t="s">
-        <v>305</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>306</v>
+        <v>285</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I30" t="s">
-        <v>307</v>
+        <v>286</v>
       </c>
       <c r="J30" t="s">
-        <v>308</v>
+        <v>287</v>
       </c>
       <c r="K30" t="s">
-        <v>309</v>
+        <v>288</v>
       </c>
       <c r="L30" t="s">
-        <v>310</v>
+        <v>289</v>
       </c>
       <c r="M30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>288</v>
+        <v>216</v>
       </c>
       <c r="O30" t="s">
-        <v>149</v>
+        <v>87</v>
       </c>
       <c r="P30" t="s"/>
-      <c r="Q30" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q30" t="s"/>
       <c r="R30" t="s"/>
-      <c r="S30" t="n">
-        <v>5</v>
-      </c>
+      <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="n">
-        <v>5</v>
-      </c>
+      <c r="U30" t="s"/>
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s"/>
-      <c r="X30" t="s"/>
+      <c r="W30" t="s">
+        <v>290</v>
+      </c>
+      <c r="X30" t="s">
+        <v>291</v>
+      </c>
       <c r="Y30" t="s">
-        <v>310</v>
+        <v>292</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>63811</v>
       </c>
-      <c r="B31" t="n">
-        <v>137947</v>
-      </c>
-      <c r="C31" t="s">
-        <v>311</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I31" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="J31" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
       <c r="K31" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
       <c r="L31" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
       <c r="O31" t="s">
-        <v>53</v>
-      </c>
-      <c r="P31" t="n">
+        <v>52</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="n">
         <v>5</v>
       </c>
-      <c r="Q31" t="s"/>
-      <c r="R31" t="s"/>
-      <c r="S31" t="s"/>
+      <c r="S31" t="n">
+        <v>5</v>
+      </c>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
         <v>5</v>
@@ -3505,75 +3907,1614 @@
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s"/>
-      <c r="X31" t="s"/>
+      <c r="W31" t="s">
+        <v>299</v>
+      </c>
+      <c r="X31" t="s">
+        <v>300</v>
+      </c>
       <c r="Y31" t="s">
-        <v>318</v>
+        <v>301</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>63811</v>
       </c>
-      <c r="B32" t="n">
-        <v>137948</v>
-      </c>
-      <c r="C32" t="s">
-        <v>319</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>320</v>
+        <v>302</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I32" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="J32" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="K32" t="s">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="L32" t="s">
-        <v>324</v>
+        <v>306</v>
       </c>
       <c r="M32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="O32" t="s">
-        <v>149</v>
-      </c>
-      <c r="P32" t="s"/>
+        <v>198</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
       <c r="Q32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R32" t="s"/>
       <c r="S32" t="s"/>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>308</v>
+      </c>
+      <c r="X32" t="s">
+        <v>309</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>63811</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>311</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>312</v>
+      </c>
+      <c r="J33" t="s">
+        <v>313</v>
+      </c>
+      <c r="K33" t="s">
+        <v>314</v>
+      </c>
+      <c r="L33" t="s">
+        <v>315</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>298</v>
+      </c>
+      <c r="O33" t="s">
+        <v>171</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>308</v>
+      </c>
+      <c r="X33" t="s">
+        <v>309</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>63811</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>317</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>318</v>
+      </c>
+      <c r="J34" t="s">
+        <v>319</v>
+      </c>
+      <c r="K34" t="s">
+        <v>320</v>
+      </c>
+      <c r="L34" t="s">
+        <v>321</v>
+      </c>
+      <c r="M34" t="n">
+        <v>3</v>
+      </c>
+      <c r="N34" t="s">
+        <v>307</v>
+      </c>
+      <c r="O34" t="s">
+        <v>87</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>322</v>
+      </c>
+      <c r="X34" t="s">
+        <v>323</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>63811</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>325</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>326</v>
+      </c>
+      <c r="J35" t="s">
+        <v>327</v>
+      </c>
+      <c r="K35" t="s">
+        <v>328</v>
+      </c>
+      <c r="L35" t="s">
+        <v>329</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>298</v>
+      </c>
+      <c r="O35" t="s">
+        <v>171</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="n">
+        <v>4</v>
+      </c>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>330</v>
+      </c>
+      <c r="X35" t="s">
+        <v>331</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>63811</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>333</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>334</v>
+      </c>
+      <c r="J36" t="s">
+        <v>335</v>
+      </c>
+      <c r="K36" t="s">
+        <v>336</v>
+      </c>
+      <c r="L36" t="s">
+        <v>337</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3</v>
+      </c>
+      <c r="N36" t="s">
+        <v>298</v>
+      </c>
+      <c r="O36" t="s">
+        <v>52</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>330</v>
+      </c>
+      <c r="X36" t="s">
+        <v>331</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>63811</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>339</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>340</v>
+      </c>
+      <c r="J37" t="s">
+        <v>341</v>
+      </c>
+      <c r="K37" t="s">
+        <v>342</v>
+      </c>
+      <c r="L37" t="s">
+        <v>343</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s">
+        <v>307</v>
+      </c>
+      <c r="O37" t="s">
+        <v>180</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>344</v>
+      </c>
+      <c r="X37" t="s">
+        <v>345</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>63811</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>347</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>348</v>
+      </c>
+      <c r="J38" t="s">
+        <v>349</v>
+      </c>
+      <c r="K38" t="s">
+        <v>350</v>
+      </c>
+      <c r="L38" t="s">
+        <v>351</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>307</v>
+      </c>
+      <c r="O38" t="s">
+        <v>52</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="n">
+        <v>3</v>
+      </c>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>352</v>
+      </c>
+      <c r="X38" t="s">
+        <v>353</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>63811</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>355</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>356</v>
+      </c>
+      <c r="J39" t="s">
+        <v>357</v>
+      </c>
+      <c r="K39" t="s">
+        <v>358</v>
+      </c>
+      <c r="L39" t="s">
+        <v>359</v>
+      </c>
+      <c r="M39" t="n">
+        <v>3</v>
+      </c>
+      <c r="N39" t="s"/>
+      <c r="O39" t="s"/>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>360</v>
+      </c>
+      <c r="X39" t="s">
+        <v>361</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>63811</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>363</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>364</v>
+      </c>
+      <c r="J40" t="s">
+        <v>365</v>
+      </c>
+      <c r="K40" t="s">
+        <v>366</v>
+      </c>
+      <c r="L40" t="s">
+        <v>367</v>
+      </c>
+      <c r="M40" t="n">
         <v>5</v>
       </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
-      <c r="W32" t="s"/>
-      <c r="X32" t="s"/>
-      <c r="Y32" t="s">
-        <v>324</v>
+      <c r="N40" t="s">
+        <v>368</v>
+      </c>
+      <c r="O40" t="s">
+        <v>180</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>360</v>
+      </c>
+      <c r="X40" t="s">
+        <v>361</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>63811</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>370</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>371</v>
+      </c>
+      <c r="J41" t="s">
+        <v>372</v>
+      </c>
+      <c r="K41" t="s">
+        <v>373</v>
+      </c>
+      <c r="L41" t="s">
+        <v>374</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>375</v>
+      </c>
+      <c r="O41" t="s">
+        <v>52</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>376</v>
+      </c>
+      <c r="X41" t="s">
+        <v>377</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>63811</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>379</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>380</v>
+      </c>
+      <c r="J42" t="s">
+        <v>381</v>
+      </c>
+      <c r="K42" t="s">
+        <v>382</v>
+      </c>
+      <c r="L42" t="s">
+        <v>383</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>384</v>
+      </c>
+      <c r="O42" t="s">
+        <v>171</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>385</v>
+      </c>
+      <c r="X42" t="s">
+        <v>386</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>63811</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>388</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>389</v>
+      </c>
+      <c r="J43" t="s">
+        <v>390</v>
+      </c>
+      <c r="K43" t="s">
+        <v>391</v>
+      </c>
+      <c r="L43" t="s">
+        <v>392</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>384</v>
+      </c>
+      <c r="O43" t="s">
+        <v>52</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="s"/>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>393</v>
+      </c>
+      <c r="X43" t="s">
+        <v>394</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>63811</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>396</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>397</v>
+      </c>
+      <c r="J44" t="s">
+        <v>398</v>
+      </c>
+      <c r="K44" t="s">
+        <v>399</v>
+      </c>
+      <c r="L44" t="s">
+        <v>400</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="s">
+        <v>384</v>
+      </c>
+      <c r="O44" t="s">
+        <v>52</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>401</v>
+      </c>
+      <c r="X44" t="s">
+        <v>402</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>63811</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>404</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>405</v>
+      </c>
+      <c r="J45" t="s">
+        <v>406</v>
+      </c>
+      <c r="K45" t="s">
+        <v>407</v>
+      </c>
+      <c r="L45" t="s">
+        <v>408</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s"/>
+      <c r="O45" t="s"/>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>409</v>
+      </c>
+      <c r="X45" t="s">
+        <v>410</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>63811</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>412</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>413</v>
+      </c>
+      <c r="J46" t="s">
+        <v>414</v>
+      </c>
+      <c r="K46" t="s">
+        <v>415</v>
+      </c>
+      <c r="L46" t="s">
+        <v>416</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>384</v>
+      </c>
+      <c r="O46" t="s">
+        <v>87</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>417</v>
+      </c>
+      <c r="X46" t="s">
+        <v>418</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>63811</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>420</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>421</v>
+      </c>
+      <c r="J47" t="s">
+        <v>422</v>
+      </c>
+      <c r="K47" t="s">
+        <v>423</v>
+      </c>
+      <c r="L47" t="s">
+        <v>424</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>384</v>
+      </c>
+      <c r="O47" t="s">
+        <v>171</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>425</v>
+      </c>
+      <c r="X47" t="s">
+        <v>426</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>63811</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>428</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>429</v>
+      </c>
+      <c r="J48" t="s">
+        <v>430</v>
+      </c>
+      <c r="K48" t="s">
+        <v>431</v>
+      </c>
+      <c r="L48" t="s">
+        <v>432</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1</v>
+      </c>
+      <c r="N48" t="s">
+        <v>384</v>
+      </c>
+      <c r="O48" t="s">
+        <v>52</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>1</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>433</v>
+      </c>
+      <c r="X48" t="s">
+        <v>434</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>63811</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s">
+        <v>436</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s">
+        <v>437</v>
+      </c>
+      <c r="J49" t="s">
+        <v>438</v>
+      </c>
+      <c r="K49" t="s">
+        <v>439</v>
+      </c>
+      <c r="L49" t="s">
+        <v>440</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>384</v>
+      </c>
+      <c r="O49" t="s">
+        <v>52</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>63811</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s">
+        <v>441</v>
+      </c>
+      <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s">
+        <v>442</v>
+      </c>
+      <c r="J50" t="s">
+        <v>443</v>
+      </c>
+      <c r="K50" t="s">
+        <v>444</v>
+      </c>
+      <c r="L50" t="s">
+        <v>445</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>446</v>
+      </c>
+      <c r="O50" t="s">
+        <v>87</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>447</v>
+      </c>
+      <c r="X50" t="s">
+        <v>448</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>63811</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s">
+        <v>450</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" t="s">
+        <v>451</v>
+      </c>
+      <c r="J51" t="s">
+        <v>452</v>
+      </c>
+      <c r="K51" t="s">
+        <v>453</v>
+      </c>
+      <c r="L51" t="s">
+        <v>454</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s"/>
+      <c r="O51" t="s"/>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>447</v>
+      </c>
+      <c r="X51" t="s">
+        <v>448</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>63811</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s">
+        <v>456</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s">
+        <v>457</v>
+      </c>
+      <c r="J52" t="s">
+        <v>458</v>
+      </c>
+      <c r="K52" t="s">
+        <v>459</v>
+      </c>
+      <c r="L52" t="s">
+        <v>460</v>
+      </c>
+      <c r="M52" t="n">
+        <v>3</v>
+      </c>
+      <c r="N52" t="s">
+        <v>461</v>
+      </c>
+      <c r="O52" t="s">
+        <v>52</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="n">
+        <v>4</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>3</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>447</v>
+      </c>
+      <c r="X52" t="s">
+        <v>448</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>63811</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s">
+        <v>463</v>
+      </c>
+      <c r="G53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" t="s">
+        <v>464</v>
+      </c>
+      <c r="J53" t="s">
+        <v>465</v>
+      </c>
+      <c r="K53" t="s">
+        <v>466</v>
+      </c>
+      <c r="L53" t="s">
+        <v>467</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>461</v>
+      </c>
+      <c r="O53" t="s">
+        <v>87</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>63811</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s">
+        <v>469</v>
+      </c>
+      <c r="G54" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" t="s">
+        <v>470</v>
+      </c>
+      <c r="J54" t="s">
+        <v>471</v>
+      </c>
+      <c r="K54" t="s">
+        <v>472</v>
+      </c>
+      <c r="L54" t="s">
+        <v>473</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>461</v>
+      </c>
+      <c r="O54" t="s">
+        <v>52</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>63811</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s">
+        <v>474</v>
+      </c>
+      <c r="G55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" t="s">
+        <v>475</v>
+      </c>
+      <c r="J55" t="s">
+        <v>476</v>
+      </c>
+      <c r="K55" t="s">
+        <v>477</v>
+      </c>
+      <c r="L55" t="s">
+        <v>478</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>461</v>
+      </c>
+      <c r="O55" t="s">
+        <v>171</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="s"/>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>63811</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s">
+        <v>479</v>
+      </c>
+      <c r="G56" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" t="s">
+        <v>480</v>
+      </c>
+      <c r="J56" t="s">
+        <v>481</v>
+      </c>
+      <c r="K56" t="s">
+        <v>482</v>
+      </c>
+      <c r="L56" t="s">
+        <v>483</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>484</v>
+      </c>
+      <c r="O56" t="s">
+        <v>52</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>63811</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s">
+        <v>486</v>
+      </c>
+      <c r="G57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" t="s">
+        <v>487</v>
+      </c>
+      <c r="J57" t="s">
+        <v>488</v>
+      </c>
+      <c r="K57" t="s">
+        <v>489</v>
+      </c>
+      <c r="L57" t="s">
+        <v>490</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>484</v>
+      </c>
+      <c r="O57" t="s">
+        <v>171</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>490</v>
       </c>
     </row>
   </sheetData>
